--- a/Gantt Chart.xlsx
+++ b/Gantt Chart.xlsx
@@ -1,26 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Lori\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D161E98-CC57-4EA4-AB3E-AB430DD9D56F}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="schedule" sheetId="2" r:id="rId4"/>
-    <sheet state="visible" name="holiday" sheetId="3" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="schedule" sheetId="2" r:id="rId2"/>
+    <sheet name="holiday" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="A1">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
-        <t xml:space="preserve">When editing holidays, please set date only in the A column.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>When editing holidays, please set date only in the A column.</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -51,7 +67,7 @@
     <t>Actual Finish</t>
   </si>
   <si>
-    <t>Workload_x001c_
+    <t>Workload_x001C_
 （Plan｜Actual）</t>
   </si>
   <si>
@@ -205,12 +221,6 @@
     <t>Mouse Logic</t>
   </si>
   <si>
-    <t>Line Contact</t>
-  </si>
-  <si>
-    <t>Keyboard Logic</t>
-  </si>
-  <si>
     <t>Logic Bugs</t>
   </si>
   <si>
@@ -223,35 +233,44 @@
     <t>Clouding</t>
   </si>
   <si>
-    <t>Maze Graphics</t>
+    <t>Finalization</t>
   </si>
   <si>
-    <t>Finalization</t>
+    <t>Player Contact</t>
+  </si>
+  <si>
+    <t>AI Logic</t>
+  </si>
+  <si>
+    <t>Asset Graphics</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="MMM-d-yyyy"/>
+    <numFmt numFmtId="164" formatCode="mmm\-d\-yyyy"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -273,163 +292,519 @@
     </fill>
   </fills>
   <borders count="3">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="34">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="2" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="2" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>866775</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1026" name="Text Box 2" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C295BC2-ED7D-4222-94A5-EC296BB76E90}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:FZ200"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="6.0" ySplit="1.0" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="G1" sqref="G1" pane="topRight"/>
-      <selection activeCell="A2" sqref="A2" pane="bottomLeft"/>
-      <selection activeCell="G2" sqref="G2" pane="bottomRight"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.14"/>
-    <col customWidth="1" min="2" max="5" width="3.0"/>
-    <col hidden="1" min="9" max="10" width="14.43"/>
-    <col customWidth="1" min="11" max="12" width="6.57"/>
-    <col customWidth="1" min="15" max="182" width="3.71"/>
+    <col min="1" max="1" width="10.140625" customWidth="1"/>
+    <col min="2" max="5" width="3" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" hidden="1"/>
+    <col min="11" max="12" width="6.5703125" customWidth="1"/>
+    <col min="15" max="182" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="26.25">
+    <row r="1" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -452,9 +827,10 @@
       <c r="J1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="32" t="s">
         <v>7</v>
       </c>
+      <c r="L1" s="33"/>
       <c r="M1" s="7" t="s">
         <v>8</v>
       </c>
@@ -678,7 +1054,7 @@
       <c r="FY1" s="9"/>
       <c r="FZ1" s="10"/>
     </row>
-    <row r="2" hidden="1">
+    <row r="2" spans="1:182" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>34</v>
       </c>
@@ -890,7 +1266,7 @@
       <c r="FY2" s="15"/>
       <c r="FZ2" s="16"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="17"/>
       <c r="B3" s="18"/>
       <c r="C3" s="18"/>
@@ -1074,9 +1450,9 @@
       <c r="FY3" s="15"/>
       <c r="FZ3" s="16"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>48</v>
@@ -1086,22 +1462,22 @@
       <c r="E4" s="18"/>
       <c r="F4" s="18"/>
       <c r="G4" s="22">
-        <v>43167.0</v>
+        <v>43167</v>
       </c>
       <c r="H4" s="22">
-        <v>43171.0</v>
+        <v>43171</v>
       </c>
       <c r="I4" s="19"/>
       <c r="J4" s="19"/>
       <c r="K4" s="23">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="L4" s="20"/>
       <c r="M4" s="12" t="s">
         <v>49</v>
       </c>
       <c r="N4" s="24">
-        <v>0.0</v>
+        <v>0.5</v>
       </c>
       <c r="O4" s="25"/>
       <c r="P4" s="14"/>
@@ -1272,9 +1648,9 @@
       <c r="FY4" s="15"/>
       <c r="FZ4" s="16"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>50</v>
@@ -1284,10 +1660,10 @@
       <c r="E5" s="18"/>
       <c r="F5" s="18"/>
       <c r="G5" s="26">
-        <v>43167.0</v>
+        <v>43167</v>
       </c>
       <c r="H5" s="26">
-        <v>43171.0</v>
+        <v>43171</v>
       </c>
       <c r="I5" s="19"/>
       <c r="J5" s="19"/>
@@ -1297,7 +1673,7 @@
         <v>51</v>
       </c>
       <c r="N5" s="24">
-        <v>0.0</v>
+        <v>1</v>
       </c>
       <c r="O5" s="25"/>
       <c r="P5" s="14"/>
@@ -1468,9 +1844,9 @@
       <c r="FY5" s="15"/>
       <c r="FZ5" s="16"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>52</v>
@@ -1480,10 +1856,10 @@
       <c r="E6" s="18"/>
       <c r="F6" s="18"/>
       <c r="G6" s="26">
-        <v>43167.0</v>
+        <v>43167</v>
       </c>
       <c r="H6" s="26">
-        <v>43173.0</v>
+        <v>43173</v>
       </c>
       <c r="I6" s="19"/>
       <c r="J6" s="19"/>
@@ -1493,7 +1869,7 @@
         <v>53</v>
       </c>
       <c r="N6" s="24">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O6" s="25"/>
       <c r="P6" s="27"/>
@@ -1664,9 +2040,9 @@
       <c r="FY6" s="15"/>
       <c r="FZ6" s="16"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>54</v>
@@ -1676,10 +2052,10 @@
       <c r="E7" s="18"/>
       <c r="F7" s="18"/>
       <c r="G7" s="26">
-        <v>43171.0</v>
+        <v>43171</v>
       </c>
       <c r="H7" s="26">
-        <v>43178.0</v>
+        <v>43178</v>
       </c>
       <c r="I7" s="19"/>
       <c r="J7" s="19"/>
@@ -1689,7 +2065,7 @@
         <v>49</v>
       </c>
       <c r="N7" s="24">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O7" s="25"/>
       <c r="P7" s="27"/>
@@ -1860,9 +2236,9 @@
       <c r="FY7" s="15"/>
       <c r="FZ7" s="16"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>55</v>
@@ -1872,10 +2248,10 @@
       <c r="E8" s="18"/>
       <c r="F8" s="18"/>
       <c r="G8" s="26">
-        <v>43171.0</v>
+        <v>43171</v>
       </c>
       <c r="H8" s="26">
-        <v>43178.0</v>
+        <v>43178</v>
       </c>
       <c r="I8" s="19"/>
       <c r="J8" s="19"/>
@@ -1885,7 +2261,7 @@
         <v>51</v>
       </c>
       <c r="N8" s="24">
-        <v>0.0</v>
+        <v>1</v>
       </c>
       <c r="O8" s="25"/>
       <c r="P8" s="27"/>
@@ -2056,9 +2432,9 @@
       <c r="FY8" s="15"/>
       <c r="FZ8" s="16"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>56</v>
@@ -2068,10 +2444,10 @@
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
       <c r="G9" s="26">
-        <v>43171.0</v>
+        <v>43171</v>
       </c>
       <c r="H9" s="26">
-        <v>43185.0</v>
+        <v>43185</v>
       </c>
       <c r="I9" s="19"/>
       <c r="J9" s="19"/>
@@ -2081,7 +2457,7 @@
         <v>49</v>
       </c>
       <c r="N9" s="24">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O9" s="25"/>
       <c r="P9" s="27"/>
@@ -2252,9 +2628,9 @@
       <c r="FY9" s="15"/>
       <c r="FZ9" s="16"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>57</v>
@@ -2264,10 +2640,10 @@
       <c r="E10" s="18"/>
       <c r="F10" s="18"/>
       <c r="G10" s="26">
-        <v>43178.0</v>
+        <v>43178</v>
       </c>
       <c r="H10" s="26">
-        <v>43185.0</v>
+        <v>43185</v>
       </c>
       <c r="I10" s="19"/>
       <c r="J10" s="19"/>
@@ -2277,7 +2653,7 @@
         <v>51</v>
       </c>
       <c r="N10" s="24">
-        <v>0.0</v>
+        <v>0.75</v>
       </c>
       <c r="O10" s="13"/>
       <c r="P10" s="14"/>
@@ -2448,22 +2824,22 @@
       <c r="FY10" s="15"/>
       <c r="FZ10" s="16"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
       <c r="E11" s="18"/>
       <c r="F11" s="18"/>
       <c r="G11" s="26">
-        <v>43185.0</v>
+        <v>43185</v>
       </c>
       <c r="H11" s="26">
-        <v>43187.0</v>
+        <v>43187</v>
       </c>
       <c r="I11" s="19"/>
       <c r="J11" s="19"/>
@@ -2473,7 +2849,7 @@
         <v>49</v>
       </c>
       <c r="N11" s="24">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O11" s="13"/>
       <c r="P11" s="14"/>
@@ -2644,22 +3020,22 @@
       <c r="FY11" s="15"/>
       <c r="FZ11" s="16"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
       <c r="F12" s="18"/>
       <c r="G12" s="26">
-        <v>43185.0</v>
+        <v>43185</v>
       </c>
       <c r="H12" s="26">
-        <v>43187.0</v>
+        <v>43187</v>
       </c>
       <c r="I12" s="19"/>
       <c r="J12" s="19"/>
@@ -2669,7 +3045,7 @@
         <v>51</v>
       </c>
       <c r="N12" s="24">
-        <v>0.0</v>
+        <v>0.8</v>
       </c>
       <c r="O12" s="13"/>
       <c r="P12" s="14"/>
@@ -2840,22 +3216,22 @@
       <c r="FY12" s="15"/>
       <c r="FZ12" s="16"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
       <c r="F13" s="18"/>
       <c r="G13" s="26">
-        <v>43171.0</v>
+        <v>43171</v>
       </c>
       <c r="H13" s="26">
-        <v>43187.0</v>
+        <v>43187</v>
       </c>
       <c r="I13" s="19"/>
       <c r="J13" s="19"/>
@@ -2865,7 +3241,7 @@
         <v>53</v>
       </c>
       <c r="N13" s="24">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O13" s="25"/>
       <c r="P13" s="27"/>
@@ -3036,22 +3412,22 @@
       <c r="FY13" s="15"/>
       <c r="FZ13" s="16"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
       <c r="E14" s="18"/>
       <c r="F14" s="18"/>
       <c r="G14" s="26">
-        <v>43171.0</v>
+        <v>43171</v>
       </c>
       <c r="H14" s="26">
-        <v>43187.0</v>
+        <v>43187</v>
       </c>
       <c r="I14" s="19"/>
       <c r="J14" s="19"/>
@@ -3061,7 +3437,7 @@
         <v>53</v>
       </c>
       <c r="N14" s="24">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O14" s="25"/>
       <c r="P14" s="27"/>
@@ -3232,22 +3608,22 @@
       <c r="FY14" s="15"/>
       <c r="FZ14" s="16"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
       <c r="E15" s="18"/>
       <c r="F15" s="18"/>
       <c r="G15" s="26">
-        <v>43171.0</v>
+        <v>43171</v>
       </c>
       <c r="H15" s="26">
-        <v>43178.0</v>
+        <v>43178</v>
       </c>
       <c r="I15" s="19"/>
       <c r="J15" s="19"/>
@@ -3257,7 +3633,7 @@
         <v>53</v>
       </c>
       <c r="N15" s="24">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O15" s="25"/>
       <c r="P15" s="27"/>
@@ -3428,22 +3804,22 @@
       <c r="FY15" s="15"/>
       <c r="FZ15" s="16"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
       <c r="F16" s="18"/>
       <c r="G16" s="26">
-        <v>43180.0</v>
+        <v>43180</v>
       </c>
       <c r="H16" s="26">
-        <v>43187.0</v>
+        <v>43187</v>
       </c>
       <c r="I16" s="19"/>
       <c r="J16" s="19"/>
@@ -3453,7 +3829,7 @@
         <v>53</v>
       </c>
       <c r="N16" s="24">
-        <v>0.0</v>
+        <v>0.5</v>
       </c>
       <c r="O16" s="13"/>
       <c r="P16" s="14"/>
@@ -3624,22 +4000,22 @@
       <c r="FY16" s="15"/>
       <c r="FZ16" s="16"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
       <c r="E17" s="18"/>
       <c r="F17" s="18"/>
       <c r="G17" s="26">
-        <v>43171.0</v>
+        <v>43171</v>
       </c>
       <c r="H17" s="26">
-        <v>43187.0</v>
+        <v>43187</v>
       </c>
       <c r="I17" s="19"/>
       <c r="J17" s="19"/>
@@ -3649,7 +4025,7 @@
         <v>53</v>
       </c>
       <c r="N17" s="24">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O17" s="25"/>
       <c r="P17" s="27"/>
@@ -3820,22 +4196,22 @@
       <c r="FY17" s="15"/>
       <c r="FZ17" s="16"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C18" s="18"/>
       <c r="D18" s="18"/>
       <c r="E18" s="18"/>
       <c r="F18" s="18"/>
       <c r="G18" s="26">
-        <v>43185.0</v>
+        <v>43185</v>
       </c>
       <c r="H18" s="26">
-        <v>43187.0</v>
+        <v>43187</v>
       </c>
       <c r="I18" s="19"/>
       <c r="J18" s="19"/>
@@ -3845,7 +4221,7 @@
         <v>53</v>
       </c>
       <c r="N18" s="24">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O18" s="13"/>
       <c r="P18" s="14"/>
@@ -4016,7 +4392,7 @@
       <c r="FY18" s="15"/>
       <c r="FZ18" s="16"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="29"/>
       <c r="G19" s="30"/>
       <c r="H19" s="30"/>
@@ -4195,7 +4571,7 @@
       <c r="FY19" s="15"/>
       <c r="FZ19" s="16"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="29"/>
       <c r="G20" s="30"/>
       <c r="H20" s="30"/>
@@ -4374,7 +4750,7 @@
       <c r="FY20" s="15"/>
       <c r="FZ20" s="16"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="29"/>
       <c r="G21" s="30"/>
       <c r="H21" s="30"/>
@@ -4553,7 +4929,7 @@
       <c r="FY21" s="15"/>
       <c r="FZ21" s="16"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="29"/>
       <c r="G22" s="30"/>
       <c r="H22" s="30"/>
@@ -4732,7 +5108,7 @@
       <c r="FY22" s="15"/>
       <c r="FZ22" s="16"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="29"/>
       <c r="G23" s="30"/>
       <c r="H23" s="30"/>
@@ -4911,7 +5287,7 @@
       <c r="FY23" s="15"/>
       <c r="FZ23" s="16"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="29"/>
       <c r="G24" s="30"/>
       <c r="H24" s="30"/>
@@ -5090,7 +5466,7 @@
       <c r="FY24" s="15"/>
       <c r="FZ24" s="16"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="29"/>
       <c r="G25" s="30"/>
       <c r="H25" s="30"/>
@@ -5269,7 +5645,7 @@
       <c r="FY25" s="15"/>
       <c r="FZ25" s="16"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="29"/>
       <c r="G26" s="30"/>
       <c r="H26" s="30"/>
@@ -5448,7 +5824,7 @@
       <c r="FY26" s="15"/>
       <c r="FZ26" s="16"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="29"/>
       <c r="G27" s="30"/>
       <c r="H27" s="30"/>
@@ -5627,7 +6003,7 @@
       <c r="FY27" s="15"/>
       <c r="FZ27" s="16"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="29"/>
       <c r="G28" s="30"/>
       <c r="H28" s="30"/>
@@ -5806,7 +6182,7 @@
       <c r="FY28" s="15"/>
       <c r="FZ28" s="16"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="29"/>
       <c r="G29" s="30"/>
       <c r="H29" s="30"/>
@@ -5985,7 +6361,7 @@
       <c r="FY29" s="15"/>
       <c r="FZ29" s="16"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="29"/>
       <c r="G30" s="30"/>
       <c r="H30" s="30"/>
@@ -6164,7 +6540,7 @@
       <c r="FY30" s="15"/>
       <c r="FZ30" s="16"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="29"/>
       <c r="G31" s="30"/>
       <c r="H31" s="30"/>
@@ -6343,7 +6719,7 @@
       <c r="FY31" s="15"/>
       <c r="FZ31" s="16"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="29"/>
       <c r="G32" s="30"/>
       <c r="H32" s="30"/>
@@ -6522,7 +6898,7 @@
       <c r="FY32" s="15"/>
       <c r="FZ32" s="16"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="29"/>
       <c r="G33" s="30"/>
       <c r="H33" s="30"/>
@@ -6701,7 +7077,7 @@
       <c r="FY33" s="15"/>
       <c r="FZ33" s="16"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="29"/>
       <c r="G34" s="30"/>
       <c r="H34" s="30"/>
@@ -6880,7 +7256,7 @@
       <c r="FY34" s="15"/>
       <c r="FZ34" s="16"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="29"/>
       <c r="G35" s="30"/>
       <c r="H35" s="30"/>
@@ -7059,7 +7435,7 @@
       <c r="FY35" s="15"/>
       <c r="FZ35" s="16"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="29"/>
       <c r="G36" s="30"/>
       <c r="H36" s="30"/>
@@ -7238,7 +7614,7 @@
       <c r="FY36" s="15"/>
       <c r="FZ36" s="16"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="29"/>
       <c r="G37" s="30"/>
       <c r="H37" s="30"/>
@@ -7417,7 +7793,7 @@
       <c r="FY37" s="15"/>
       <c r="FZ37" s="16"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="29"/>
       <c r="G38" s="30"/>
       <c r="H38" s="30"/>
@@ -7596,7 +7972,7 @@
       <c r="FY38" s="15"/>
       <c r="FZ38" s="16"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="29"/>
       <c r="G39" s="30"/>
       <c r="H39" s="30"/>
@@ -7775,7 +8151,7 @@
       <c r="FY39" s="15"/>
       <c r="FZ39" s="16"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="29"/>
       <c r="G40" s="30"/>
       <c r="H40" s="30"/>
@@ -7954,7 +8330,7 @@
       <c r="FY40" s="15"/>
       <c r="FZ40" s="16"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="29"/>
       <c r="G41" s="30"/>
       <c r="H41" s="30"/>
@@ -8133,7 +8509,7 @@
       <c r="FY41" s="15"/>
       <c r="FZ41" s="16"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="29"/>
       <c r="G42" s="30"/>
       <c r="H42" s="30"/>
@@ -8312,7 +8688,7 @@
       <c r="FY42" s="15"/>
       <c r="FZ42" s="16"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="29"/>
       <c r="G43" s="30"/>
       <c r="H43" s="30"/>
@@ -8491,7 +8867,7 @@
       <c r="FY43" s="15"/>
       <c r="FZ43" s="16"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="29"/>
       <c r="G44" s="30"/>
       <c r="H44" s="30"/>
@@ -8670,7 +9046,7 @@
       <c r="FY44" s="15"/>
       <c r="FZ44" s="16"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="29"/>
       <c r="G45" s="30"/>
       <c r="H45" s="30"/>
@@ -8849,7 +9225,7 @@
       <c r="FY45" s="15"/>
       <c r="FZ45" s="16"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="29"/>
       <c r="G46" s="30"/>
       <c r="H46" s="30"/>
@@ -9028,7 +9404,7 @@
       <c r="FY46" s="15"/>
       <c r="FZ46" s="16"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="29"/>
       <c r="G47" s="30"/>
       <c r="H47" s="30"/>
@@ -9207,7 +9583,7 @@
       <c r="FY47" s="15"/>
       <c r="FZ47" s="16"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="29"/>
       <c r="G48" s="30"/>
       <c r="H48" s="30"/>
@@ -9386,7 +9762,7 @@
       <c r="FY48" s="15"/>
       <c r="FZ48" s="16"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="29"/>
       <c r="G49" s="30"/>
       <c r="H49" s="30"/>
@@ -9565,7 +9941,7 @@
       <c r="FY49" s="15"/>
       <c r="FZ49" s="16"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="29"/>
       <c r="G50" s="30"/>
       <c r="H50" s="30"/>
@@ -9744,7 +10120,7 @@
       <c r="FY50" s="15"/>
       <c r="FZ50" s="16"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="29"/>
       <c r="G51" s="30"/>
       <c r="H51" s="30"/>
@@ -9923,7 +10299,7 @@
       <c r="FY51" s="15"/>
       <c r="FZ51" s="16"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="29"/>
       <c r="G52" s="30"/>
       <c r="H52" s="30"/>
@@ -10102,7 +10478,7 @@
       <c r="FY52" s="15"/>
       <c r="FZ52" s="16"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="29"/>
       <c r="G53" s="30"/>
       <c r="H53" s="30"/>
@@ -10281,7 +10657,7 @@
       <c r="FY53" s="15"/>
       <c r="FZ53" s="16"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="29"/>
       <c r="G54" s="30"/>
       <c r="H54" s="30"/>
@@ -10460,7 +10836,7 @@
       <c r="FY54" s="15"/>
       <c r="FZ54" s="16"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="29"/>
       <c r="G55" s="30"/>
       <c r="H55" s="30"/>
@@ -10639,7 +11015,7 @@
       <c r="FY55" s="15"/>
       <c r="FZ55" s="16"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="29"/>
       <c r="G56" s="30"/>
       <c r="H56" s="30"/>
@@ -10818,7 +11194,7 @@
       <c r="FY56" s="15"/>
       <c r="FZ56" s="16"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="29"/>
       <c r="G57" s="30"/>
       <c r="H57" s="30"/>
@@ -10997,7 +11373,7 @@
       <c r="FY57" s="15"/>
       <c r="FZ57" s="16"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="29"/>
       <c r="G58" s="30"/>
       <c r="H58" s="30"/>
@@ -11176,7 +11552,7 @@
       <c r="FY58" s="15"/>
       <c r="FZ58" s="16"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="29"/>
       <c r="G59" s="30"/>
       <c r="H59" s="30"/>
@@ -11355,7 +11731,7 @@
       <c r="FY59" s="15"/>
       <c r="FZ59" s="16"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="29"/>
       <c r="G60" s="30"/>
       <c r="H60" s="30"/>
@@ -11534,7 +11910,7 @@
       <c r="FY60" s="15"/>
       <c r="FZ60" s="16"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="29"/>
       <c r="G61" s="30"/>
       <c r="H61" s="30"/>
@@ -11713,7 +12089,7 @@
       <c r="FY61" s="15"/>
       <c r="FZ61" s="16"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="29"/>
       <c r="G62" s="30"/>
       <c r="H62" s="30"/>
@@ -11892,7 +12268,7 @@
       <c r="FY62" s="15"/>
       <c r="FZ62" s="16"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="29"/>
       <c r="G63" s="30"/>
       <c r="H63" s="30"/>
@@ -12071,7 +12447,7 @@
       <c r="FY63" s="15"/>
       <c r="FZ63" s="16"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="29"/>
       <c r="G64" s="30"/>
       <c r="H64" s="30"/>
@@ -12250,7 +12626,7 @@
       <c r="FY64" s="15"/>
       <c r="FZ64" s="16"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="29"/>
       <c r="G65" s="30"/>
       <c r="H65" s="30"/>
@@ -12429,7 +12805,7 @@
       <c r="FY65" s="15"/>
       <c r="FZ65" s="16"/>
     </row>
-    <row r="66">
+    <row r="66" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="29"/>
       <c r="G66" s="30"/>
       <c r="H66" s="30"/>
@@ -12608,7 +12984,7 @@
       <c r="FY66" s="15"/>
       <c r="FZ66" s="16"/>
     </row>
-    <row r="67">
+    <row r="67" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="29"/>
       <c r="G67" s="30"/>
       <c r="H67" s="30"/>
@@ -12787,7 +13163,7 @@
       <c r="FY67" s="15"/>
       <c r="FZ67" s="16"/>
     </row>
-    <row r="68">
+    <row r="68" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="29"/>
       <c r="G68" s="30"/>
       <c r="H68" s="30"/>
@@ -12966,7 +13342,7 @@
       <c r="FY68" s="15"/>
       <c r="FZ68" s="16"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69" s="29"/>
       <c r="G69" s="30"/>
       <c r="H69" s="30"/>
@@ -13145,7 +13521,7 @@
       <c r="FY69" s="15"/>
       <c r="FZ69" s="16"/>
     </row>
-    <row r="70">
+    <row r="70" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70" s="29"/>
       <c r="G70" s="30"/>
       <c r="H70" s="30"/>
@@ -13324,7 +13700,7 @@
       <c r="FY70" s="15"/>
       <c r="FZ70" s="16"/>
     </row>
-    <row r="71">
+    <row r="71" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A71" s="29"/>
       <c r="G71" s="30"/>
       <c r="H71" s="30"/>
@@ -13503,7 +13879,7 @@
       <c r="FY71" s="15"/>
       <c r="FZ71" s="16"/>
     </row>
-    <row r="72">
+    <row r="72" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A72" s="29"/>
       <c r="G72" s="30"/>
       <c r="H72" s="30"/>
@@ -13682,7 +14058,7 @@
       <c r="FY72" s="15"/>
       <c r="FZ72" s="16"/>
     </row>
-    <row r="73">
+    <row r="73" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="29"/>
       <c r="G73" s="30"/>
       <c r="H73" s="30"/>
@@ -13861,7 +14237,7 @@
       <c r="FY73" s="15"/>
       <c r="FZ73" s="16"/>
     </row>
-    <row r="74">
+    <row r="74" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A74" s="29"/>
       <c r="G74" s="30"/>
       <c r="H74" s="30"/>
@@ -14040,7 +14416,7 @@
       <c r="FY74" s="15"/>
       <c r="FZ74" s="16"/>
     </row>
-    <row r="75">
+    <row r="75" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A75" s="29"/>
       <c r="G75" s="30"/>
       <c r="H75" s="30"/>
@@ -14219,7 +14595,7 @@
       <c r="FY75" s="15"/>
       <c r="FZ75" s="16"/>
     </row>
-    <row r="76">
+    <row r="76" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A76" s="29"/>
       <c r="G76" s="30"/>
       <c r="H76" s="30"/>
@@ -14398,7 +14774,7 @@
       <c r="FY76" s="15"/>
       <c r="FZ76" s="16"/>
     </row>
-    <row r="77">
+    <row r="77" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A77" s="29"/>
       <c r="G77" s="30"/>
       <c r="H77" s="30"/>
@@ -14577,7 +14953,7 @@
       <c r="FY77" s="15"/>
       <c r="FZ77" s="16"/>
     </row>
-    <row r="78">
+    <row r="78" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A78" s="29"/>
       <c r="G78" s="30"/>
       <c r="H78" s="30"/>
@@ -14756,7 +15132,7 @@
       <c r="FY78" s="15"/>
       <c r="FZ78" s="16"/>
     </row>
-    <row r="79">
+    <row r="79" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A79" s="29"/>
       <c r="G79" s="30"/>
       <c r="H79" s="30"/>
@@ -14935,7 +15311,7 @@
       <c r="FY79" s="15"/>
       <c r="FZ79" s="16"/>
     </row>
-    <row r="80">
+    <row r="80" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A80" s="29"/>
       <c r="G80" s="30"/>
       <c r="H80" s="30"/>
@@ -15114,7 +15490,7 @@
       <c r="FY80" s="15"/>
       <c r="FZ80" s="16"/>
     </row>
-    <row r="81">
+    <row r="81" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A81" s="29"/>
       <c r="G81" s="30"/>
       <c r="H81" s="30"/>
@@ -15293,7 +15669,7 @@
       <c r="FY81" s="15"/>
       <c r="FZ81" s="16"/>
     </row>
-    <row r="82">
+    <row r="82" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A82" s="29"/>
       <c r="G82" s="30"/>
       <c r="H82" s="30"/>
@@ -15472,7 +15848,7 @@
       <c r="FY82" s="15"/>
       <c r="FZ82" s="16"/>
     </row>
-    <row r="83">
+    <row r="83" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A83" s="29"/>
       <c r="G83" s="30"/>
       <c r="H83" s="30"/>
@@ -15651,7 +16027,7 @@
       <c r="FY83" s="15"/>
       <c r="FZ83" s="16"/>
     </row>
-    <row r="84">
+    <row r="84" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A84" s="29"/>
       <c r="G84" s="30"/>
       <c r="H84" s="30"/>
@@ -15830,7 +16206,7 @@
       <c r="FY84" s="15"/>
       <c r="FZ84" s="16"/>
     </row>
-    <row r="85">
+    <row r="85" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A85" s="29"/>
       <c r="G85" s="30"/>
       <c r="H85" s="30"/>
@@ -16009,7 +16385,7 @@
       <c r="FY85" s="15"/>
       <c r="FZ85" s="16"/>
     </row>
-    <row r="86">
+    <row r="86" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A86" s="29"/>
       <c r="G86" s="30"/>
       <c r="H86" s="30"/>
@@ -16188,7 +16564,7 @@
       <c r="FY86" s="15"/>
       <c r="FZ86" s="16"/>
     </row>
-    <row r="87">
+    <row r="87" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A87" s="29"/>
       <c r="G87" s="30"/>
       <c r="H87" s="30"/>
@@ -16367,7 +16743,7 @@
       <c r="FY87" s="15"/>
       <c r="FZ87" s="16"/>
     </row>
-    <row r="88">
+    <row r="88" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A88" s="29"/>
       <c r="G88" s="30"/>
       <c r="H88" s="30"/>
@@ -16546,7 +16922,7 @@
       <c r="FY88" s="15"/>
       <c r="FZ88" s="16"/>
     </row>
-    <row r="89">
+    <row r="89" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A89" s="29"/>
       <c r="G89" s="30"/>
       <c r="H89" s="30"/>
@@ -16725,7 +17101,7 @@
       <c r="FY89" s="15"/>
       <c r="FZ89" s="16"/>
     </row>
-    <row r="90">
+    <row r="90" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A90" s="29"/>
       <c r="G90" s="30"/>
       <c r="H90" s="30"/>
@@ -16904,7 +17280,7 @@
       <c r="FY90" s="15"/>
       <c r="FZ90" s="16"/>
     </row>
-    <row r="91">
+    <row r="91" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A91" s="29"/>
       <c r="G91" s="30"/>
       <c r="H91" s="30"/>
@@ -17083,7 +17459,7 @@
       <c r="FY91" s="15"/>
       <c r="FZ91" s="16"/>
     </row>
-    <row r="92">
+    <row r="92" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A92" s="29"/>
       <c r="G92" s="30"/>
       <c r="H92" s="30"/>
@@ -17262,7 +17638,7 @@
       <c r="FY92" s="15"/>
       <c r="FZ92" s="16"/>
     </row>
-    <row r="93">
+    <row r="93" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A93" s="29"/>
       <c r="G93" s="30"/>
       <c r="H93" s="30"/>
@@ -17441,7 +17817,7 @@
       <c r="FY93" s="15"/>
       <c r="FZ93" s="16"/>
     </row>
-    <row r="94">
+    <row r="94" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A94" s="29"/>
       <c r="G94" s="30"/>
       <c r="H94" s="30"/>
@@ -17620,7 +17996,7 @@
       <c r="FY94" s="15"/>
       <c r="FZ94" s="16"/>
     </row>
-    <row r="95">
+    <row r="95" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A95" s="29"/>
       <c r="G95" s="30"/>
       <c r="H95" s="30"/>
@@ -17799,7 +18175,7 @@
       <c r="FY95" s="15"/>
       <c r="FZ95" s="16"/>
     </row>
-    <row r="96">
+    <row r="96" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A96" s="29"/>
       <c r="G96" s="30"/>
       <c r="H96" s="30"/>
@@ -17978,7 +18354,7 @@
       <c r="FY96" s="15"/>
       <c r="FZ96" s="16"/>
     </row>
-    <row r="97">
+    <row r="97" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A97" s="29"/>
       <c r="G97" s="30"/>
       <c r="H97" s="30"/>
@@ -18157,7 +18533,7 @@
       <c r="FY97" s="15"/>
       <c r="FZ97" s="16"/>
     </row>
-    <row r="98">
+    <row r="98" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A98" s="29"/>
       <c r="G98" s="30"/>
       <c r="H98" s="30"/>
@@ -18336,7 +18712,7 @@
       <c r="FY98" s="15"/>
       <c r="FZ98" s="16"/>
     </row>
-    <row r="99">
+    <row r="99" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A99" s="29"/>
       <c r="G99" s="30"/>
       <c r="H99" s="30"/>
@@ -18515,7 +18891,7 @@
       <c r="FY99" s="15"/>
       <c r="FZ99" s="16"/>
     </row>
-    <row r="100">
+    <row r="100" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A100" s="29"/>
       <c r="G100" s="30"/>
       <c r="H100" s="30"/>
@@ -18694,7 +19070,7 @@
       <c r="FY100" s="15"/>
       <c r="FZ100" s="16"/>
     </row>
-    <row r="101">
+    <row r="101" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A101" s="29"/>
       <c r="G101" s="30"/>
       <c r="H101" s="30"/>
@@ -18873,7 +19249,7 @@
       <c r="FY101" s="15"/>
       <c r="FZ101" s="16"/>
     </row>
-    <row r="102">
+    <row r="102" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A102" s="29"/>
       <c r="G102" s="30"/>
       <c r="H102" s="30"/>
@@ -19052,7 +19428,7 @@
       <c r="FY102" s="15"/>
       <c r="FZ102" s="16"/>
     </row>
-    <row r="103">
+    <row r="103" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A103" s="29"/>
       <c r="G103" s="30"/>
       <c r="H103" s="30"/>
@@ -19231,7 +19607,7 @@
       <c r="FY103" s="15"/>
       <c r="FZ103" s="16"/>
     </row>
-    <row r="104">
+    <row r="104" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A104" s="29"/>
       <c r="G104" s="30"/>
       <c r="H104" s="30"/>
@@ -19410,7 +19786,7 @@
       <c r="FY104" s="15"/>
       <c r="FZ104" s="16"/>
     </row>
-    <row r="105">
+    <row r="105" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A105" s="29"/>
       <c r="G105" s="30"/>
       <c r="H105" s="30"/>
@@ -19589,7 +19965,7 @@
       <c r="FY105" s="15"/>
       <c r="FZ105" s="16"/>
     </row>
-    <row r="106">
+    <row r="106" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A106" s="29"/>
       <c r="G106" s="30"/>
       <c r="H106" s="30"/>
@@ -19768,7 +20144,7 @@
       <c r="FY106" s="15"/>
       <c r="FZ106" s="16"/>
     </row>
-    <row r="107">
+    <row r="107" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A107" s="29"/>
       <c r="G107" s="30"/>
       <c r="H107" s="30"/>
@@ -19947,7 +20323,7 @@
       <c r="FY107" s="15"/>
       <c r="FZ107" s="16"/>
     </row>
-    <row r="108">
+    <row r="108" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A108" s="29"/>
       <c r="G108" s="30"/>
       <c r="H108" s="30"/>
@@ -20126,7 +20502,7 @@
       <c r="FY108" s="15"/>
       <c r="FZ108" s="16"/>
     </row>
-    <row r="109">
+    <row r="109" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A109" s="29"/>
       <c r="G109" s="30"/>
       <c r="H109" s="30"/>
@@ -20305,7 +20681,7 @@
       <c r="FY109" s="15"/>
       <c r="FZ109" s="16"/>
     </row>
-    <row r="110">
+    <row r="110" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A110" s="29"/>
       <c r="G110" s="30"/>
       <c r="H110" s="30"/>
@@ -20484,7 +20860,7 @@
       <c r="FY110" s="15"/>
       <c r="FZ110" s="16"/>
     </row>
-    <row r="111">
+    <row r="111" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A111" s="29"/>
       <c r="G111" s="30"/>
       <c r="H111" s="30"/>
@@ -20663,7 +21039,7 @@
       <c r="FY111" s="15"/>
       <c r="FZ111" s="16"/>
     </row>
-    <row r="112">
+    <row r="112" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A112" s="29"/>
       <c r="G112" s="30"/>
       <c r="H112" s="30"/>
@@ -20842,7 +21218,7 @@
       <c r="FY112" s="15"/>
       <c r="FZ112" s="16"/>
     </row>
-    <row r="113">
+    <row r="113" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A113" s="29"/>
       <c r="G113" s="30"/>
       <c r="H113" s="30"/>
@@ -21021,7 +21397,7 @@
       <c r="FY113" s="15"/>
       <c r="FZ113" s="16"/>
     </row>
-    <row r="114">
+    <row r="114" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A114" s="29"/>
       <c r="G114" s="30"/>
       <c r="H114" s="30"/>
@@ -21200,7 +21576,7 @@
       <c r="FY114" s="15"/>
       <c r="FZ114" s="16"/>
     </row>
-    <row r="115">
+    <row r="115" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A115" s="29"/>
       <c r="G115" s="30"/>
       <c r="H115" s="30"/>
@@ -21379,7 +21755,7 @@
       <c r="FY115" s="15"/>
       <c r="FZ115" s="16"/>
     </row>
-    <row r="116">
+    <row r="116" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A116" s="29"/>
       <c r="G116" s="30"/>
       <c r="H116" s="30"/>
@@ -21558,7 +21934,7 @@
       <c r="FY116" s="15"/>
       <c r="FZ116" s="16"/>
     </row>
-    <row r="117">
+    <row r="117" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A117" s="29"/>
       <c r="G117" s="30"/>
       <c r="H117" s="30"/>
@@ -21737,7 +22113,7 @@
       <c r="FY117" s="15"/>
       <c r="FZ117" s="16"/>
     </row>
-    <row r="118">
+    <row r="118" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A118" s="29"/>
       <c r="G118" s="30"/>
       <c r="H118" s="30"/>
@@ -21916,7 +22292,7 @@
       <c r="FY118" s="15"/>
       <c r="FZ118" s="16"/>
     </row>
-    <row r="119">
+    <row r="119" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A119" s="29"/>
       <c r="G119" s="30"/>
       <c r="H119" s="30"/>
@@ -22095,7 +22471,7 @@
       <c r="FY119" s="15"/>
       <c r="FZ119" s="16"/>
     </row>
-    <row r="120">
+    <row r="120" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A120" s="29"/>
       <c r="G120" s="30"/>
       <c r="H120" s="30"/>
@@ -22274,7 +22650,7 @@
       <c r="FY120" s="15"/>
       <c r="FZ120" s="16"/>
     </row>
-    <row r="121">
+    <row r="121" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A121" s="29"/>
       <c r="G121" s="30"/>
       <c r="H121" s="30"/>
@@ -22453,7 +22829,7 @@
       <c r="FY121" s="15"/>
       <c r="FZ121" s="16"/>
     </row>
-    <row r="122">
+    <row r="122" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A122" s="29"/>
       <c r="G122" s="30"/>
       <c r="H122" s="30"/>
@@ -22632,7 +23008,7 @@
       <c r="FY122" s="15"/>
       <c r="FZ122" s="16"/>
     </row>
-    <row r="123">
+    <row r="123" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A123" s="29"/>
       <c r="G123" s="30"/>
       <c r="H123" s="30"/>
@@ -22811,7 +23187,7 @@
       <c r="FY123" s="15"/>
       <c r="FZ123" s="16"/>
     </row>
-    <row r="124">
+    <row r="124" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A124" s="29"/>
       <c r="G124" s="30"/>
       <c r="H124" s="30"/>
@@ -22990,7 +23366,7 @@
       <c r="FY124" s="15"/>
       <c r="FZ124" s="16"/>
     </row>
-    <row r="125">
+    <row r="125" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A125" s="29"/>
       <c r="G125" s="30"/>
       <c r="H125" s="30"/>
@@ -23169,7 +23545,7 @@
       <c r="FY125" s="15"/>
       <c r="FZ125" s="16"/>
     </row>
-    <row r="126">
+    <row r="126" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A126" s="29"/>
       <c r="G126" s="30"/>
       <c r="H126" s="30"/>
@@ -23348,7 +23724,7 @@
       <c r="FY126" s="15"/>
       <c r="FZ126" s="16"/>
     </row>
-    <row r="127">
+    <row r="127" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A127" s="29"/>
       <c r="G127" s="30"/>
       <c r="H127" s="30"/>
@@ -23527,7 +23903,7 @@
       <c r="FY127" s="15"/>
       <c r="FZ127" s="16"/>
     </row>
-    <row r="128">
+    <row r="128" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A128" s="29"/>
       <c r="G128" s="30"/>
       <c r="H128" s="30"/>
@@ -23706,7 +24082,7 @@
       <c r="FY128" s="15"/>
       <c r="FZ128" s="16"/>
     </row>
-    <row r="129">
+    <row r="129" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A129" s="29"/>
       <c r="G129" s="30"/>
       <c r="H129" s="30"/>
@@ -23885,7 +24261,7 @@
       <c r="FY129" s="15"/>
       <c r="FZ129" s="16"/>
     </row>
-    <row r="130">
+    <row r="130" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A130" s="29"/>
       <c r="G130" s="30"/>
       <c r="H130" s="30"/>
@@ -24064,7 +24440,7 @@
       <c r="FY130" s="15"/>
       <c r="FZ130" s="16"/>
     </row>
-    <row r="131">
+    <row r="131" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A131" s="29"/>
       <c r="G131" s="30"/>
       <c r="H131" s="30"/>
@@ -24243,7 +24619,7 @@
       <c r="FY131" s="15"/>
       <c r="FZ131" s="16"/>
     </row>
-    <row r="132">
+    <row r="132" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A132" s="29"/>
       <c r="G132" s="30"/>
       <c r="H132" s="30"/>
@@ -24422,7 +24798,7 @@
       <c r="FY132" s="15"/>
       <c r="FZ132" s="16"/>
     </row>
-    <row r="133">
+    <row r="133" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A133" s="29"/>
       <c r="G133" s="30"/>
       <c r="H133" s="30"/>
@@ -24601,7 +24977,7 @@
       <c r="FY133" s="15"/>
       <c r="FZ133" s="16"/>
     </row>
-    <row r="134">
+    <row r="134" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A134" s="29"/>
       <c r="G134" s="30"/>
       <c r="H134" s="30"/>
@@ -24780,7 +25156,7 @@
       <c r="FY134" s="15"/>
       <c r="FZ134" s="16"/>
     </row>
-    <row r="135">
+    <row r="135" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A135" s="29"/>
       <c r="G135" s="30"/>
       <c r="H135" s="30"/>
@@ -24959,7 +25335,7 @@
       <c r="FY135" s="15"/>
       <c r="FZ135" s="16"/>
     </row>
-    <row r="136">
+    <row r="136" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A136" s="29"/>
       <c r="G136" s="30"/>
       <c r="H136" s="30"/>
@@ -25138,7 +25514,7 @@
       <c r="FY136" s="15"/>
       <c r="FZ136" s="16"/>
     </row>
-    <row r="137">
+    <row r="137" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A137" s="29"/>
       <c r="G137" s="30"/>
       <c r="H137" s="30"/>
@@ -25317,7 +25693,7 @@
       <c r="FY137" s="15"/>
       <c r="FZ137" s="16"/>
     </row>
-    <row r="138">
+    <row r="138" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A138" s="29"/>
       <c r="G138" s="30"/>
       <c r="H138" s="30"/>
@@ -25496,7 +25872,7 @@
       <c r="FY138" s="15"/>
       <c r="FZ138" s="16"/>
     </row>
-    <row r="139">
+    <row r="139" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A139" s="29"/>
       <c r="G139" s="30"/>
       <c r="H139" s="30"/>
@@ -25675,7 +26051,7 @@
       <c r="FY139" s="15"/>
       <c r="FZ139" s="16"/>
     </row>
-    <row r="140">
+    <row r="140" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A140" s="29"/>
       <c r="G140" s="30"/>
       <c r="H140" s="30"/>
@@ -25854,7 +26230,7 @@
       <c r="FY140" s="15"/>
       <c r="FZ140" s="16"/>
     </row>
-    <row r="141">
+    <row r="141" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A141" s="29"/>
       <c r="G141" s="30"/>
       <c r="H141" s="30"/>
@@ -26033,7 +26409,7 @@
       <c r="FY141" s="15"/>
       <c r="FZ141" s="16"/>
     </row>
-    <row r="142">
+    <row r="142" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A142" s="29"/>
       <c r="G142" s="30"/>
       <c r="H142" s="30"/>
@@ -26212,7 +26588,7 @@
       <c r="FY142" s="15"/>
       <c r="FZ142" s="16"/>
     </row>
-    <row r="143">
+    <row r="143" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A143" s="29"/>
       <c r="G143" s="30"/>
       <c r="H143" s="30"/>
@@ -26391,7 +26767,7 @@
       <c r="FY143" s="15"/>
       <c r="FZ143" s="16"/>
     </row>
-    <row r="144">
+    <row r="144" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A144" s="29"/>
       <c r="G144" s="30"/>
       <c r="H144" s="30"/>
@@ -26570,7 +26946,7 @@
       <c r="FY144" s="15"/>
       <c r="FZ144" s="16"/>
     </row>
-    <row r="145">
+    <row r="145" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A145" s="29"/>
       <c r="G145" s="30"/>
       <c r="H145" s="30"/>
@@ -26749,7 +27125,7 @@
       <c r="FY145" s="15"/>
       <c r="FZ145" s="16"/>
     </row>
-    <row r="146">
+    <row r="146" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A146" s="29"/>
       <c r="G146" s="30"/>
       <c r="H146" s="30"/>
@@ -26928,7 +27304,7 @@
       <c r="FY146" s="15"/>
       <c r="FZ146" s="16"/>
     </row>
-    <row r="147">
+    <row r="147" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A147" s="29"/>
       <c r="G147" s="30"/>
       <c r="H147" s="30"/>
@@ -27107,7 +27483,7 @@
       <c r="FY147" s="15"/>
       <c r="FZ147" s="16"/>
     </row>
-    <row r="148">
+    <row r="148" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A148" s="29"/>
       <c r="G148" s="30"/>
       <c r="H148" s="30"/>
@@ -27286,7 +27662,7 @@
       <c r="FY148" s="15"/>
       <c r="FZ148" s="16"/>
     </row>
-    <row r="149">
+    <row r="149" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A149" s="29"/>
       <c r="G149" s="30"/>
       <c r="H149" s="30"/>
@@ -27465,7 +27841,7 @@
       <c r="FY149" s="15"/>
       <c r="FZ149" s="16"/>
     </row>
-    <row r="150">
+    <row r="150" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A150" s="29"/>
       <c r="G150" s="30"/>
       <c r="H150" s="30"/>
@@ -27644,7 +28020,7 @@
       <c r="FY150" s="15"/>
       <c r="FZ150" s="16"/>
     </row>
-    <row r="151">
+    <row r="151" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A151" s="29"/>
       <c r="G151" s="30"/>
       <c r="H151" s="30"/>
@@ -27823,7 +28199,7 @@
       <c r="FY151" s="15"/>
       <c r="FZ151" s="16"/>
     </row>
-    <row r="152">
+    <row r="152" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A152" s="29"/>
       <c r="G152" s="30"/>
       <c r="H152" s="30"/>
@@ -28002,7 +28378,7 @@
       <c r="FY152" s="15"/>
       <c r="FZ152" s="16"/>
     </row>
-    <row r="153">
+    <row r="153" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A153" s="29"/>
       <c r="G153" s="30"/>
       <c r="H153" s="30"/>
@@ -28181,7 +28557,7 @@
       <c r="FY153" s="15"/>
       <c r="FZ153" s="16"/>
     </row>
-    <row r="154">
+    <row r="154" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A154" s="29"/>
       <c r="G154" s="30"/>
       <c r="H154" s="30"/>
@@ -28360,7 +28736,7 @@
       <c r="FY154" s="15"/>
       <c r="FZ154" s="16"/>
     </row>
-    <row r="155">
+    <row r="155" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A155" s="29"/>
       <c r="G155" s="30"/>
       <c r="H155" s="30"/>
@@ -28539,7 +28915,7 @@
       <c r="FY155" s="15"/>
       <c r="FZ155" s="16"/>
     </row>
-    <row r="156">
+    <row r="156" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A156" s="29"/>
       <c r="G156" s="30"/>
       <c r="H156" s="30"/>
@@ -28718,7 +29094,7 @@
       <c r="FY156" s="15"/>
       <c r="FZ156" s="16"/>
     </row>
-    <row r="157">
+    <row r="157" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A157" s="29"/>
       <c r="G157" s="30"/>
       <c r="H157" s="30"/>
@@ -28897,7 +29273,7 @@
       <c r="FY157" s="15"/>
       <c r="FZ157" s="16"/>
     </row>
-    <row r="158">
+    <row r="158" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A158" s="29"/>
       <c r="G158" s="30"/>
       <c r="H158" s="30"/>
@@ -29076,7 +29452,7 @@
       <c r="FY158" s="15"/>
       <c r="FZ158" s="16"/>
     </row>
-    <row r="159">
+    <row r="159" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A159" s="29"/>
       <c r="G159" s="30"/>
       <c r="H159" s="30"/>
@@ -29255,7 +29631,7 @@
       <c r="FY159" s="15"/>
       <c r="FZ159" s="16"/>
     </row>
-    <row r="160">
+    <row r="160" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A160" s="29"/>
       <c r="G160" s="30"/>
       <c r="H160" s="30"/>
@@ -29434,7 +29810,7 @@
       <c r="FY160" s="15"/>
       <c r="FZ160" s="16"/>
     </row>
-    <row r="161">
+    <row r="161" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A161" s="29"/>
       <c r="G161" s="30"/>
       <c r="H161" s="30"/>
@@ -29613,7 +29989,7 @@
       <c r="FY161" s="15"/>
       <c r="FZ161" s="16"/>
     </row>
-    <row r="162">
+    <row r="162" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A162" s="29"/>
       <c r="G162" s="30"/>
       <c r="H162" s="30"/>
@@ -29792,7 +30168,7 @@
       <c r="FY162" s="15"/>
       <c r="FZ162" s="16"/>
     </row>
-    <row r="163">
+    <row r="163" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A163" s="29"/>
       <c r="G163" s="30"/>
       <c r="H163" s="30"/>
@@ -29971,7 +30347,7 @@
       <c r="FY163" s="15"/>
       <c r="FZ163" s="16"/>
     </row>
-    <row r="164">
+    <row r="164" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A164" s="29"/>
       <c r="G164" s="30"/>
       <c r="H164" s="30"/>
@@ -30150,7 +30526,7 @@
       <c r="FY164" s="15"/>
       <c r="FZ164" s="16"/>
     </row>
-    <row r="165">
+    <row r="165" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A165" s="29"/>
       <c r="G165" s="30"/>
       <c r="H165" s="30"/>
@@ -30329,7 +30705,7 @@
       <c r="FY165" s="15"/>
       <c r="FZ165" s="16"/>
     </row>
-    <row r="166">
+    <row r="166" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A166" s="29"/>
       <c r="G166" s="30"/>
       <c r="H166" s="30"/>
@@ -30508,7 +30884,7 @@
       <c r="FY166" s="15"/>
       <c r="FZ166" s="16"/>
     </row>
-    <row r="167">
+    <row r="167" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A167" s="29"/>
       <c r="G167" s="30"/>
       <c r="H167" s="30"/>
@@ -30687,7 +31063,7 @@
       <c r="FY167" s="15"/>
       <c r="FZ167" s="16"/>
     </row>
-    <row r="168">
+    <row r="168" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A168" s="29"/>
       <c r="G168" s="30"/>
       <c r="H168" s="30"/>
@@ -30866,7 +31242,7 @@
       <c r="FY168" s="15"/>
       <c r="FZ168" s="16"/>
     </row>
-    <row r="169">
+    <row r="169" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A169" s="29"/>
       <c r="G169" s="30"/>
       <c r="H169" s="30"/>
@@ -31045,7 +31421,7 @@
       <c r="FY169" s="15"/>
       <c r="FZ169" s="16"/>
     </row>
-    <row r="170">
+    <row r="170" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A170" s="29"/>
       <c r="G170" s="30"/>
       <c r="H170" s="30"/>
@@ -31224,7 +31600,7 @@
       <c r="FY170" s="15"/>
       <c r="FZ170" s="16"/>
     </row>
-    <row r="171">
+    <row r="171" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A171" s="29"/>
       <c r="G171" s="30"/>
       <c r="H171" s="30"/>
@@ -31403,7 +31779,7 @@
       <c r="FY171" s="15"/>
       <c r="FZ171" s="16"/>
     </row>
-    <row r="172">
+    <row r="172" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A172" s="29"/>
       <c r="G172" s="30"/>
       <c r="H172" s="30"/>
@@ -31582,7 +31958,7 @@
       <c r="FY172" s="15"/>
       <c r="FZ172" s="16"/>
     </row>
-    <row r="173">
+    <row r="173" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A173" s="29"/>
       <c r="G173" s="30"/>
       <c r="H173" s="30"/>
@@ -31761,7 +32137,7 @@
       <c r="FY173" s="15"/>
       <c r="FZ173" s="16"/>
     </row>
-    <row r="174">
+    <row r="174" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A174" s="29"/>
       <c r="G174" s="30"/>
       <c r="H174" s="30"/>
@@ -31940,7 +32316,7 @@
       <c r="FY174" s="15"/>
       <c r="FZ174" s="16"/>
     </row>
-    <row r="175">
+    <row r="175" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A175" s="29"/>
       <c r="G175" s="30"/>
       <c r="H175" s="30"/>
@@ -32119,7 +32495,7 @@
       <c r="FY175" s="15"/>
       <c r="FZ175" s="16"/>
     </row>
-    <row r="176">
+    <row r="176" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A176" s="29"/>
       <c r="G176" s="30"/>
       <c r="H176" s="30"/>
@@ -32298,7 +32674,7 @@
       <c r="FY176" s="15"/>
       <c r="FZ176" s="16"/>
     </row>
-    <row r="177">
+    <row r="177" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A177" s="29"/>
       <c r="G177" s="30"/>
       <c r="H177" s="30"/>
@@ -32477,7 +32853,7 @@
       <c r="FY177" s="15"/>
       <c r="FZ177" s="16"/>
     </row>
-    <row r="178">
+    <row r="178" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A178" s="29"/>
       <c r="G178" s="30"/>
       <c r="H178" s="30"/>
@@ -32656,7 +33032,7 @@
       <c r="FY178" s="15"/>
       <c r="FZ178" s="16"/>
     </row>
-    <row r="179">
+    <row r="179" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A179" s="29"/>
       <c r="G179" s="30"/>
       <c r="H179" s="30"/>
@@ -32835,7 +33211,7 @@
       <c r="FY179" s="15"/>
       <c r="FZ179" s="16"/>
     </row>
-    <row r="180">
+    <row r="180" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A180" s="29"/>
       <c r="G180" s="30"/>
       <c r="H180" s="30"/>
@@ -33014,7 +33390,7 @@
       <c r="FY180" s="15"/>
       <c r="FZ180" s="16"/>
     </row>
-    <row r="181">
+    <row r="181" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A181" s="29"/>
       <c r="G181" s="30"/>
       <c r="H181" s="30"/>
@@ -33193,7 +33569,7 @@
       <c r="FY181" s="15"/>
       <c r="FZ181" s="16"/>
     </row>
-    <row r="182">
+    <row r="182" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A182" s="29"/>
       <c r="G182" s="30"/>
       <c r="H182" s="30"/>
@@ -33372,7 +33748,7 @@
       <c r="FY182" s="15"/>
       <c r="FZ182" s="16"/>
     </row>
-    <row r="183">
+    <row r="183" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A183" s="29"/>
       <c r="G183" s="30"/>
       <c r="H183" s="30"/>
@@ -33551,7 +33927,7 @@
       <c r="FY183" s="15"/>
       <c r="FZ183" s="16"/>
     </row>
-    <row r="184">
+    <row r="184" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A184" s="29"/>
       <c r="G184" s="30"/>
       <c r="H184" s="30"/>
@@ -33730,7 +34106,7 @@
       <c r="FY184" s="15"/>
       <c r="FZ184" s="16"/>
     </row>
-    <row r="185">
+    <row r="185" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A185" s="29"/>
       <c r="G185" s="30"/>
       <c r="H185" s="30"/>
@@ -33909,7 +34285,7 @@
       <c r="FY185" s="15"/>
       <c r="FZ185" s="16"/>
     </row>
-    <row r="186">
+    <row r="186" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A186" s="29"/>
       <c r="G186" s="30"/>
       <c r="H186" s="30"/>
@@ -34088,7 +34464,7 @@
       <c r="FY186" s="15"/>
       <c r="FZ186" s="16"/>
     </row>
-    <row r="187">
+    <row r="187" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A187" s="29"/>
       <c r="G187" s="30"/>
       <c r="H187" s="30"/>
@@ -34267,7 +34643,7 @@
       <c r="FY187" s="15"/>
       <c r="FZ187" s="16"/>
     </row>
-    <row r="188">
+    <row r="188" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A188" s="29"/>
       <c r="G188" s="30"/>
       <c r="H188" s="30"/>
@@ -34446,7 +34822,7 @@
       <c r="FY188" s="15"/>
       <c r="FZ188" s="16"/>
     </row>
-    <row r="189">
+    <row r="189" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A189" s="29"/>
       <c r="G189" s="30"/>
       <c r="H189" s="30"/>
@@ -34625,7 +35001,7 @@
       <c r="FY189" s="15"/>
       <c r="FZ189" s="16"/>
     </row>
-    <row r="190">
+    <row r="190" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A190" s="29"/>
       <c r="G190" s="30"/>
       <c r="H190" s="30"/>
@@ -34804,7 +35180,7 @@
       <c r="FY190" s="15"/>
       <c r="FZ190" s="16"/>
     </row>
-    <row r="191">
+    <row r="191" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A191" s="29"/>
       <c r="G191" s="30"/>
       <c r="H191" s="30"/>
@@ -34983,7 +35359,7 @@
       <c r="FY191" s="15"/>
       <c r="FZ191" s="16"/>
     </row>
-    <row r="192">
+    <row r="192" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A192" s="29"/>
       <c r="G192" s="30"/>
       <c r="H192" s="30"/>
@@ -35162,7 +35538,7 @@
       <c r="FY192" s="15"/>
       <c r="FZ192" s="16"/>
     </row>
-    <row r="193">
+    <row r="193" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A193" s="29"/>
       <c r="G193" s="30"/>
       <c r="H193" s="30"/>
@@ -35341,7 +35717,7 @@
       <c r="FY193" s="15"/>
       <c r="FZ193" s="16"/>
     </row>
-    <row r="194">
+    <row r="194" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A194" s="29"/>
       <c r="G194" s="30"/>
       <c r="H194" s="30"/>
@@ -35520,7 +35896,7 @@
       <c r="FY194" s="15"/>
       <c r="FZ194" s="16"/>
     </row>
-    <row r="195">
+    <row r="195" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A195" s="29"/>
       <c r="G195" s="30"/>
       <c r="H195" s="30"/>
@@ -35699,7 +36075,7 @@
       <c r="FY195" s="15"/>
       <c r="FZ195" s="16"/>
     </row>
-    <row r="196">
+    <row r="196" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A196" s="29"/>
       <c r="G196" s="30"/>
       <c r="H196" s="30"/>
@@ -35878,7 +36254,7 @@
       <c r="FY196" s="15"/>
       <c r="FZ196" s="16"/>
     </row>
-    <row r="197">
+    <row r="197" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A197" s="29"/>
       <c r="G197" s="30"/>
       <c r="H197" s="30"/>
@@ -36057,7 +36433,7 @@
       <c r="FY197" s="15"/>
       <c r="FZ197" s="16"/>
     </row>
-    <row r="198">
+    <row r="198" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A198" s="29"/>
       <c r="G198" s="30"/>
       <c r="H198" s="30"/>
@@ -36236,7 +36612,7 @@
       <c r="FY198" s="15"/>
       <c r="FZ198" s="16"/>
     </row>
-    <row r="199">
+    <row r="199" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A199" s="29"/>
       <c r="G199" s="30"/>
       <c r="H199" s="30"/>
@@ -36415,7 +36791,7 @@
       <c r="FY199" s="15"/>
       <c r="FZ199" s="16"/>
     </row>
-    <row r="200">
+    <row r="200" spans="1:182" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A200" s="29"/>
       <c r="G200" s="30"/>
       <c r="H200" s="30"/>
@@ -36598,3037 +36974,3039 @@
   <mergeCells count="1">
     <mergeCell ref="K1:L1"/>
   </mergeCells>
-  <dataValidations>
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" sqref="K3:L200 N3:N200">
-      <formula1>-1.0</formula1>
+  <dataValidations count="2">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" sqref="K3:L200 N3:N200" xr:uid="{00000000-0002-0000-0100-000000000000}">
+      <formula1>-1</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="G3:J200">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="G3:J200" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>OR(NOT(ISERROR(DATEVALUE(G3))), AND(ISNUMBER(G3), LEFT(CELL("format", G3))="D"))</formula1>
     </dataValidation>
   </dataValidations>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>43100.33333333333</v>
+        <v>43100.333333333328</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="3"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="3"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="3"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="3"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="3"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="3"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="3"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="3"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="3"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="3"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="3"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="3"/>
     </row>
-    <row r="66">
+    <row r="66" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="3"/>
     </row>
-    <row r="67">
+    <row r="67" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="3"/>
     </row>
-    <row r="68">
+    <row r="68" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="3"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69" s="3"/>
     </row>
-    <row r="70">
+    <row r="70" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70" s="3"/>
     </row>
-    <row r="71">
+    <row r="71" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A71" s="3"/>
     </row>
-    <row r="72">
+    <row r="72" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A72" s="3"/>
     </row>
-    <row r="73">
+    <row r="73" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="3"/>
     </row>
-    <row r="74">
+    <row r="74" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A74" s="3"/>
     </row>
-    <row r="75">
+    <row r="75" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A75" s="3"/>
     </row>
-    <row r="76">
+    <row r="76" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A76" s="3"/>
     </row>
-    <row r="77">
+    <row r="77" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A77" s="3"/>
     </row>
-    <row r="78">
+    <row r="78" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A78" s="3"/>
     </row>
-    <row r="79">
+    <row r="79" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A79" s="3"/>
     </row>
-    <row r="80">
+    <row r="80" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A80" s="3"/>
     </row>
-    <row r="81">
+    <row r="81" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A81" s="3"/>
     </row>
-    <row r="82">
+    <row r="82" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A82" s="3"/>
     </row>
-    <row r="83">
+    <row r="83" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A83" s="3"/>
     </row>
-    <row r="84">
+    <row r="84" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A84" s="3"/>
     </row>
-    <row r="85">
+    <row r="85" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A85" s="3"/>
     </row>
-    <row r="86">
+    <row r="86" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A86" s="3"/>
     </row>
-    <row r="87">
+    <row r="87" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A87" s="3"/>
     </row>
-    <row r="88">
+    <row r="88" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A88" s="3"/>
     </row>
-    <row r="89">
+    <row r="89" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A89" s="3"/>
     </row>
-    <row r="90">
+    <row r="90" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A90" s="3"/>
     </row>
-    <row r="91">
+    <row r="91" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A91" s="3"/>
     </row>
-    <row r="92">
+    <row r="92" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A92" s="3"/>
     </row>
-    <row r="93">
+    <row r="93" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A93" s="3"/>
     </row>
-    <row r="94">
+    <row r="94" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A94" s="3"/>
     </row>
-    <row r="95">
+    <row r="95" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A95" s="3"/>
     </row>
-    <row r="96">
+    <row r="96" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A96" s="3"/>
     </row>
-    <row r="97">
+    <row r="97" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A97" s="3"/>
     </row>
-    <row r="98">
+    <row r="98" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A98" s="3"/>
     </row>
-    <row r="99">
+    <row r="99" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A99" s="3"/>
     </row>
-    <row r="100">
+    <row r="100" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A100" s="3"/>
     </row>
-    <row r="101">
+    <row r="101" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A101" s="3"/>
     </row>
-    <row r="102">
+    <row r="102" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A102" s="3"/>
     </row>
-    <row r="103">
+    <row r="103" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A103" s="3"/>
     </row>
-    <row r="104">
+    <row r="104" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A104" s="3"/>
     </row>
-    <row r="105">
+    <row r="105" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A105" s="3"/>
     </row>
-    <row r="106">
+    <row r="106" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A106" s="3"/>
     </row>
-    <row r="107">
+    <row r="107" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A107" s="3"/>
     </row>
-    <row r="108">
+    <row r="108" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A108" s="3"/>
     </row>
-    <row r="109">
+    <row r="109" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A109" s="3"/>
     </row>
-    <row r="110">
+    <row r="110" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A110" s="3"/>
     </row>
-    <row r="111">
+    <row r="111" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A111" s="3"/>
     </row>
-    <row r="112">
+    <row r="112" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A112" s="3"/>
     </row>
-    <row r="113">
+    <row r="113" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A113" s="3"/>
     </row>
-    <row r="114">
+    <row r="114" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A114" s="3"/>
     </row>
-    <row r="115">
+    <row r="115" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A115" s="3"/>
     </row>
-    <row r="116">
+    <row r="116" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A116" s="3"/>
     </row>
-    <row r="117">
+    <row r="117" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A117" s="3"/>
     </row>
-    <row r="118">
+    <row r="118" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A118" s="3"/>
     </row>
-    <row r="119">
+    <row r="119" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A119" s="3"/>
     </row>
-    <row r="120">
+    <row r="120" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A120" s="3"/>
     </row>
-    <row r="121">
+    <row r="121" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A121" s="3"/>
     </row>
-    <row r="122">
+    <row r="122" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A122" s="3"/>
     </row>
-    <row r="123">
+    <row r="123" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A123" s="3"/>
     </row>
-    <row r="124">
+    <row r="124" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A124" s="3"/>
     </row>
-    <row r="125">
+    <row r="125" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A125" s="3"/>
     </row>
-    <row r="126">
+    <row r="126" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A126" s="3"/>
     </row>
-    <row r="127">
+    <row r="127" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A127" s="3"/>
     </row>
-    <row r="128">
+    <row r="128" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A128" s="3"/>
     </row>
-    <row r="129">
+    <row r="129" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A129" s="3"/>
     </row>
-    <row r="130">
+    <row r="130" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A130" s="3"/>
     </row>
-    <row r="131">
+    <row r="131" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A131" s="3"/>
     </row>
-    <row r="132">
+    <row r="132" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A132" s="3"/>
     </row>
-    <row r="133">
+    <row r="133" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A133" s="3"/>
     </row>
-    <row r="134">
+    <row r="134" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A134" s="3"/>
     </row>
-    <row r="135">
+    <row r="135" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A135" s="3"/>
     </row>
-    <row r="136">
+    <row r="136" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A136" s="3"/>
     </row>
-    <row r="137">
+    <row r="137" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A137" s="3"/>
     </row>
-    <row r="138">
+    <row r="138" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A138" s="3"/>
     </row>
-    <row r="139">
+    <row r="139" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A139" s="3"/>
     </row>
-    <row r="140">
+    <row r="140" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A140" s="3"/>
     </row>
-    <row r="141">
+    <row r="141" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A141" s="3"/>
     </row>
-    <row r="142">
+    <row r="142" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A142" s="3"/>
     </row>
-    <row r="143">
+    <row r="143" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A143" s="3"/>
     </row>
-    <row r="144">
+    <row r="144" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A144" s="3"/>
     </row>
-    <row r="145">
+    <row r="145" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A145" s="3"/>
     </row>
-    <row r="146">
+    <row r="146" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A146" s="3"/>
     </row>
-    <row r="147">
+    <row r="147" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A147" s="3"/>
     </row>
-    <row r="148">
+    <row r="148" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A148" s="3"/>
     </row>
-    <row r="149">
+    <row r="149" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A149" s="3"/>
     </row>
-    <row r="150">
+    <row r="150" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A150" s="3"/>
     </row>
-    <row r="151">
+    <row r="151" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A151" s="3"/>
     </row>
-    <row r="152">
+    <row r="152" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A152" s="3"/>
     </row>
-    <row r="153">
+    <row r="153" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A153" s="3"/>
     </row>
-    <row r="154">
+    <row r="154" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A154" s="3"/>
     </row>
-    <row r="155">
+    <row r="155" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A155" s="3"/>
     </row>
-    <row r="156">
+    <row r="156" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A156" s="3"/>
     </row>
-    <row r="157">
+    <row r="157" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A157" s="3"/>
     </row>
-    <row r="158">
+    <row r="158" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A158" s="3"/>
     </row>
-    <row r="159">
+    <row r="159" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A159" s="3"/>
     </row>
-    <row r="160">
+    <row r="160" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A160" s="3"/>
     </row>
-    <row r="161">
+    <row r="161" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A161" s="3"/>
     </row>
-    <row r="162">
+    <row r="162" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A162" s="3"/>
     </row>
-    <row r="163">
+    <row r="163" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A163" s="3"/>
     </row>
-    <row r="164">
+    <row r="164" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A164" s="3"/>
     </row>
-    <row r="165">
+    <row r="165" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A165" s="3"/>
     </row>
-    <row r="166">
+    <row r="166" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A166" s="3"/>
     </row>
-    <row r="167">
+    <row r="167" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A167" s="3"/>
     </row>
-    <row r="168">
+    <row r="168" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A168" s="3"/>
     </row>
-    <row r="169">
+    <row r="169" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A169" s="3"/>
     </row>
-    <row r="170">
+    <row r="170" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A170" s="3"/>
     </row>
-    <row r="171">
+    <row r="171" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A171" s="3"/>
     </row>
-    <row r="172">
+    <row r="172" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A172" s="3"/>
     </row>
-    <row r="173">
+    <row r="173" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A173" s="3"/>
     </row>
-    <row r="174">
+    <row r="174" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A174" s="3"/>
     </row>
-    <row r="175">
+    <row r="175" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A175" s="3"/>
     </row>
-    <row r="176">
+    <row r="176" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A176" s="3"/>
     </row>
-    <row r="177">
+    <row r="177" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A177" s="3"/>
     </row>
-    <row r="178">
+    <row r="178" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A178" s="3"/>
     </row>
-    <row r="179">
+    <row r="179" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A179" s="3"/>
     </row>
-    <row r="180">
+    <row r="180" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A180" s="3"/>
     </row>
-    <row r="181">
+    <row r="181" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A181" s="3"/>
     </row>
-    <row r="182">
+    <row r="182" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A182" s="3"/>
     </row>
-    <row r="183">
+    <row r="183" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A183" s="3"/>
     </row>
-    <row r="184">
+    <row r="184" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A184" s="3"/>
     </row>
-    <row r="185">
+    <row r="185" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A185" s="3"/>
     </row>
-    <row r="186">
+    <row r="186" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A186" s="3"/>
     </row>
-    <row r="187">
+    <row r="187" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A187" s="3"/>
     </row>
-    <row r="188">
+    <row r="188" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A188" s="3"/>
     </row>
-    <row r="189">
+    <row r="189" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A189" s="3"/>
     </row>
-    <row r="190">
+    <row r="190" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A190" s="3"/>
     </row>
-    <row r="191">
+    <row r="191" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A191" s="3"/>
     </row>
-    <row r="192">
+    <row r="192" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A192" s="3"/>
     </row>
-    <row r="193">
+    <row r="193" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A193" s="3"/>
     </row>
-    <row r="194">
+    <row r="194" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A194" s="3"/>
     </row>
-    <row r="195">
+    <row r="195" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A195" s="3"/>
     </row>
-    <row r="196">
+    <row r="196" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A196" s="3"/>
     </row>
-    <row r="197">
+    <row r="197" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A197" s="3"/>
     </row>
-    <row r="198">
+    <row r="198" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A198" s="3"/>
     </row>
-    <row r="199">
+    <row r="199" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A199" s="3"/>
     </row>
-    <row r="200">
+    <row r="200" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A200" s="3"/>
     </row>
-    <row r="201">
+    <row r="201" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A201" s="3"/>
     </row>
-    <row r="202">
+    <row r="202" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A202" s="3"/>
     </row>
-    <row r="203">
+    <row r="203" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A203" s="3"/>
     </row>
-    <row r="204">
+    <row r="204" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A204" s="3"/>
     </row>
-    <row r="205">
+    <row r="205" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A205" s="3"/>
     </row>
-    <row r="206">
+    <row r="206" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A206" s="3"/>
     </row>
-    <row r="207">
+    <row r="207" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A207" s="3"/>
     </row>
-    <row r="208">
+    <row r="208" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A208" s="3"/>
     </row>
-    <row r="209">
+    <row r="209" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A209" s="3"/>
     </row>
-    <row r="210">
+    <row r="210" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A210" s="3"/>
     </row>
-    <row r="211">
+    <row r="211" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A211" s="3"/>
     </row>
-    <row r="212">
+    <row r="212" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A212" s="3"/>
     </row>
-    <row r="213">
+    <row r="213" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A213" s="3"/>
     </row>
-    <row r="214">
+    <row r="214" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A214" s="3"/>
     </row>
-    <row r="215">
+    <row r="215" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A215" s="3"/>
     </row>
-    <row r="216">
+    <row r="216" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A216" s="3"/>
     </row>
-    <row r="217">
+    <row r="217" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A217" s="3"/>
     </row>
-    <row r="218">
+    <row r="218" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A218" s="3"/>
     </row>
-    <row r="219">
+    <row r="219" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A219" s="3"/>
     </row>
-    <row r="220">
+    <row r="220" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A220" s="3"/>
     </row>
-    <row r="221">
+    <row r="221" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A221" s="3"/>
     </row>
-    <row r="222">
+    <row r="222" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A222" s="3"/>
     </row>
-    <row r="223">
+    <row r="223" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A223" s="3"/>
     </row>
-    <row r="224">
+    <row r="224" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A224" s="3"/>
     </row>
-    <row r="225">
+    <row r="225" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A225" s="3"/>
     </row>
-    <row r="226">
+    <row r="226" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A226" s="3"/>
     </row>
-    <row r="227">
+    <row r="227" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A227" s="3"/>
     </row>
-    <row r="228">
+    <row r="228" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A228" s="3"/>
     </row>
-    <row r="229">
+    <row r="229" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A229" s="3"/>
     </row>
-    <row r="230">
+    <row r="230" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A230" s="3"/>
     </row>
-    <row r="231">
+    <row r="231" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A231" s="3"/>
     </row>
-    <row r="232">
+    <row r="232" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A232" s="3"/>
     </row>
-    <row r="233">
+    <row r="233" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A233" s="3"/>
     </row>
-    <row r="234">
+    <row r="234" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A234" s="3"/>
     </row>
-    <row r="235">
+    <row r="235" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A235" s="3"/>
     </row>
-    <row r="236">
+    <row r="236" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A236" s="3"/>
     </row>
-    <row r="237">
+    <row r="237" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A237" s="3"/>
     </row>
-    <row r="238">
+    <row r="238" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A238" s="3"/>
     </row>
-    <row r="239">
+    <row r="239" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A239" s="3"/>
     </row>
-    <row r="240">
+    <row r="240" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A240" s="3"/>
     </row>
-    <row r="241">
+    <row r="241" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A241" s="3"/>
     </row>
-    <row r="242">
+    <row r="242" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A242" s="3"/>
     </row>
-    <row r="243">
+    <row r="243" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A243" s="3"/>
     </row>
-    <row r="244">
+    <row r="244" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A244" s="3"/>
     </row>
-    <row r="245">
+    <row r="245" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A245" s="3"/>
     </row>
-    <row r="246">
+    <row r="246" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A246" s="3"/>
     </row>
-    <row r="247">
+    <row r="247" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A247" s="3"/>
     </row>
-    <row r="248">
+    <row r="248" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A248" s="3"/>
     </row>
-    <row r="249">
+    <row r="249" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A249" s="3"/>
     </row>
-    <row r="250">
+    <row r="250" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A250" s="3"/>
     </row>
-    <row r="251">
+    <row r="251" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A251" s="3"/>
     </row>
-    <row r="252">
+    <row r="252" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A252" s="3"/>
     </row>
-    <row r="253">
+    <row r="253" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A253" s="3"/>
     </row>
-    <row r="254">
+    <row r="254" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A254" s="3"/>
     </row>
-    <row r="255">
+    <row r="255" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A255" s="3"/>
     </row>
-    <row r="256">
+    <row r="256" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A256" s="3"/>
     </row>
-    <row r="257">
+    <row r="257" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A257" s="3"/>
     </row>
-    <row r="258">
+    <row r="258" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A258" s="3"/>
     </row>
-    <row r="259">
+    <row r="259" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A259" s="3"/>
     </row>
-    <row r="260">
+    <row r="260" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A260" s="3"/>
     </row>
-    <row r="261">
+    <row r="261" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A261" s="3"/>
     </row>
-    <row r="262">
+    <row r="262" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A262" s="3"/>
     </row>
-    <row r="263">
+    <row r="263" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A263" s="3"/>
     </row>
-    <row r="264">
+    <row r="264" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A264" s="3"/>
     </row>
-    <row r="265">
+    <row r="265" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A265" s="3"/>
     </row>
-    <row r="266">
+    <row r="266" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A266" s="3"/>
     </row>
-    <row r="267">
+    <row r="267" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A267" s="3"/>
     </row>
-    <row r="268">
+    <row r="268" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A268" s="3"/>
     </row>
-    <row r="269">
+    <row r="269" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A269" s="3"/>
     </row>
-    <row r="270">
+    <row r="270" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A270" s="3"/>
     </row>
-    <row r="271">
+    <row r="271" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A271" s="3"/>
     </row>
-    <row r="272">
+    <row r="272" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A272" s="3"/>
     </row>
-    <row r="273">
+    <row r="273" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A273" s="3"/>
     </row>
-    <row r="274">
+    <row r="274" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A274" s="3"/>
     </row>
-    <row r="275">
+    <row r="275" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A275" s="3"/>
     </row>
-    <row r="276">
+    <row r="276" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A276" s="3"/>
     </row>
-    <row r="277">
+    <row r="277" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A277" s="3"/>
     </row>
-    <row r="278">
+    <row r="278" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A278" s="3"/>
     </row>
-    <row r="279">
+    <row r="279" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A279" s="3"/>
     </row>
-    <row r="280">
+    <row r="280" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A280" s="3"/>
     </row>
-    <row r="281">
+    <row r="281" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A281" s="3"/>
     </row>
-    <row r="282">
+    <row r="282" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A282" s="3"/>
     </row>
-    <row r="283">
+    <row r="283" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A283" s="3"/>
     </row>
-    <row r="284">
+    <row r="284" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A284" s="3"/>
     </row>
-    <row r="285">
+    <row r="285" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A285" s="3"/>
     </row>
-    <row r="286">
+    <row r="286" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A286" s="3"/>
     </row>
-    <row r="287">
+    <row r="287" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A287" s="3"/>
     </row>
-    <row r="288">
+    <row r="288" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A288" s="3"/>
     </row>
-    <row r="289">
+    <row r="289" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A289" s="3"/>
     </row>
-    <row r="290">
+    <row r="290" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A290" s="3"/>
     </row>
-    <row r="291">
+    <row r="291" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A291" s="3"/>
     </row>
-    <row r="292">
+    <row r="292" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A292" s="3"/>
     </row>
-    <row r="293">
+    <row r="293" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A293" s="3"/>
     </row>
-    <row r="294">
+    <row r="294" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A294" s="3"/>
     </row>
-    <row r="295">
+    <row r="295" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A295" s="3"/>
     </row>
-    <row r="296">
+    <row r="296" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A296" s="3"/>
     </row>
-    <row r="297">
+    <row r="297" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A297" s="3"/>
     </row>
-    <row r="298">
+    <row r="298" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A298" s="3"/>
     </row>
-    <row r="299">
+    <row r="299" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A299" s="3"/>
     </row>
-    <row r="300">
+    <row r="300" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A300" s="3"/>
     </row>
-    <row r="301">
+    <row r="301" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A301" s="3"/>
     </row>
-    <row r="302">
+    <row r="302" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A302" s="3"/>
     </row>
-    <row r="303">
+    <row r="303" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A303" s="3"/>
     </row>
-    <row r="304">
+    <row r="304" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A304" s="3"/>
     </row>
-    <row r="305">
+    <row r="305" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A305" s="3"/>
     </row>
-    <row r="306">
+    <row r="306" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A306" s="3"/>
     </row>
-    <row r="307">
+    <row r="307" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A307" s="3"/>
     </row>
-    <row r="308">
+    <row r="308" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A308" s="3"/>
     </row>
-    <row r="309">
+    <row r="309" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A309" s="3"/>
     </row>
-    <row r="310">
+    <row r="310" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A310" s="3"/>
     </row>
-    <row r="311">
+    <row r="311" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A311" s="3"/>
     </row>
-    <row r="312">
+    <row r="312" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A312" s="3"/>
     </row>
-    <row r="313">
+    <row r="313" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A313" s="3"/>
     </row>
-    <row r="314">
+    <row r="314" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A314" s="3"/>
     </row>
-    <row r="315">
+    <row r="315" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A315" s="3"/>
     </row>
-    <row r="316">
+    <row r="316" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A316" s="3"/>
     </row>
-    <row r="317">
+    <row r="317" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A317" s="3"/>
     </row>
-    <row r="318">
+    <row r="318" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A318" s="3"/>
     </row>
-    <row r="319">
+    <row r="319" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A319" s="3"/>
     </row>
-    <row r="320">
+    <row r="320" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A320" s="3"/>
     </row>
-    <row r="321">
+    <row r="321" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A321" s="3"/>
     </row>
-    <row r="322">
+    <row r="322" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A322" s="3"/>
     </row>
-    <row r="323">
+    <row r="323" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A323" s="3"/>
     </row>
-    <row r="324">
+    <row r="324" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A324" s="3"/>
     </row>
-    <row r="325">
+    <row r="325" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A325" s="3"/>
     </row>
-    <row r="326">
+    <row r="326" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A326" s="3"/>
     </row>
-    <row r="327">
+    <row r="327" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A327" s="3"/>
     </row>
-    <row r="328">
+    <row r="328" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A328" s="3"/>
     </row>
-    <row r="329">
+    <row r="329" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A329" s="3"/>
     </row>
-    <row r="330">
+    <row r="330" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A330" s="3"/>
     </row>
-    <row r="331">
+    <row r="331" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A331" s="3"/>
     </row>
-    <row r="332">
+    <row r="332" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A332" s="3"/>
     </row>
-    <row r="333">
+    <row r="333" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A333" s="3"/>
     </row>
-    <row r="334">
+    <row r="334" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A334" s="3"/>
     </row>
-    <row r="335">
+    <row r="335" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A335" s="3"/>
     </row>
-    <row r="336">
+    <row r="336" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A336" s="3"/>
     </row>
-    <row r="337">
+    <row r="337" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A337" s="3"/>
     </row>
-    <row r="338">
+    <row r="338" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A338" s="3"/>
     </row>
-    <row r="339">
+    <row r="339" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A339" s="3"/>
     </row>
-    <row r="340">
+    <row r="340" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A340" s="3"/>
     </row>
-    <row r="341">
+    <row r="341" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A341" s="3"/>
     </row>
-    <row r="342">
+    <row r="342" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A342" s="3"/>
     </row>
-    <row r="343">
+    <row r="343" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A343" s="3"/>
     </row>
-    <row r="344">
+    <row r="344" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A344" s="3"/>
     </row>
-    <row r="345">
+    <row r="345" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A345" s="3"/>
     </row>
-    <row r="346">
+    <row r="346" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A346" s="3"/>
     </row>
-    <row r="347">
+    <row r="347" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A347" s="3"/>
     </row>
-    <row r="348">
+    <row r="348" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A348" s="3"/>
     </row>
-    <row r="349">
+    <row r="349" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A349" s="3"/>
     </row>
-    <row r="350">
+    <row r="350" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A350" s="3"/>
     </row>
-    <row r="351">
+    <row r="351" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A351" s="3"/>
     </row>
-    <row r="352">
+    <row r="352" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A352" s="3"/>
     </row>
-    <row r="353">
+    <row r="353" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A353" s="3"/>
     </row>
-    <row r="354">
+    <row r="354" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A354" s="3"/>
     </row>
-    <row r="355">
+    <row r="355" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A355" s="3"/>
     </row>
-    <row r="356">
+    <row r="356" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A356" s="3"/>
     </row>
-    <row r="357">
+    <row r="357" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A357" s="3"/>
     </row>
-    <row r="358">
+    <row r="358" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A358" s="3"/>
     </row>
-    <row r="359">
+    <row r="359" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A359" s="3"/>
     </row>
-    <row r="360">
+    <row r="360" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A360" s="3"/>
     </row>
-    <row r="361">
+    <row r="361" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A361" s="3"/>
     </row>
-    <row r="362">
+    <row r="362" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A362" s="3"/>
     </row>
-    <row r="363">
+    <row r="363" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A363" s="3"/>
     </row>
-    <row r="364">
+    <row r="364" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A364" s="3"/>
     </row>
-    <row r="365">
+    <row r="365" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A365" s="3"/>
     </row>
-    <row r="366">
+    <row r="366" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A366" s="3"/>
     </row>
-    <row r="367">
+    <row r="367" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A367" s="3"/>
     </row>
-    <row r="368">
+    <row r="368" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A368" s="3"/>
     </row>
-    <row r="369">
+    <row r="369" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A369" s="3"/>
     </row>
-    <row r="370">
+    <row r="370" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A370" s="3"/>
     </row>
-    <row r="371">
+    <row r="371" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A371" s="3"/>
     </row>
-    <row r="372">
+    <row r="372" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A372" s="3"/>
     </row>
-    <row r="373">
+    <row r="373" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A373" s="3"/>
     </row>
-    <row r="374">
+    <row r="374" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A374" s="3"/>
     </row>
-    <row r="375">
+    <row r="375" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A375" s="3"/>
     </row>
-    <row r="376">
+    <row r="376" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A376" s="3"/>
     </row>
-    <row r="377">
+    <row r="377" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A377" s="3"/>
     </row>
-    <row r="378">
+    <row r="378" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A378" s="3"/>
     </row>
-    <row r="379">
+    <row r="379" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A379" s="3"/>
     </row>
-    <row r="380">
+    <row r="380" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A380" s="3"/>
     </row>
-    <row r="381">
+    <row r="381" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A381" s="3"/>
     </row>
-    <row r="382">
+    <row r="382" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A382" s="3"/>
     </row>
-    <row r="383">
+    <row r="383" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A383" s="3"/>
     </row>
-    <row r="384">
+    <row r="384" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A384" s="3"/>
     </row>
-    <row r="385">
+    <row r="385" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A385" s="3"/>
     </row>
-    <row r="386">
+    <row r="386" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A386" s="3"/>
     </row>
-    <row r="387">
+    <row r="387" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A387" s="3"/>
     </row>
-    <row r="388">
+    <row r="388" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A388" s="3"/>
     </row>
-    <row r="389">
+    <row r="389" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A389" s="3"/>
     </row>
-    <row r="390">
+    <row r="390" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A390" s="3"/>
     </row>
-    <row r="391">
+    <row r="391" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A391" s="3"/>
     </row>
-    <row r="392">
+    <row r="392" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A392" s="3"/>
     </row>
-    <row r="393">
+    <row r="393" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A393" s="3"/>
     </row>
-    <row r="394">
+    <row r="394" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A394" s="3"/>
     </row>
-    <row r="395">
+    <row r="395" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A395" s="3"/>
     </row>
-    <row r="396">
+    <row r="396" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A396" s="3"/>
     </row>
-    <row r="397">
+    <row r="397" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A397" s="3"/>
     </row>
-    <row r="398">
+    <row r="398" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A398" s="3"/>
     </row>
-    <row r="399">
+    <row r="399" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A399" s="3"/>
     </row>
-    <row r="400">
+    <row r="400" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A400" s="3"/>
     </row>
-    <row r="401">
+    <row r="401" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A401" s="3"/>
     </row>
-    <row r="402">
+    <row r="402" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A402" s="3"/>
     </row>
-    <row r="403">
+    <row r="403" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A403" s="3"/>
     </row>
-    <row r="404">
+    <row r="404" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A404" s="3"/>
     </row>
-    <row r="405">
+    <row r="405" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A405" s="3"/>
     </row>
-    <row r="406">
+    <row r="406" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A406" s="3"/>
     </row>
-    <row r="407">
+    <row r="407" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A407" s="3"/>
     </row>
-    <row r="408">
+    <row r="408" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A408" s="3"/>
     </row>
-    <row r="409">
+    <row r="409" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A409" s="3"/>
     </row>
-    <row r="410">
+    <row r="410" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A410" s="3"/>
     </row>
-    <row r="411">
+    <row r="411" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A411" s="3"/>
     </row>
-    <row r="412">
+    <row r="412" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A412" s="3"/>
     </row>
-    <row r="413">
+    <row r="413" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A413" s="3"/>
     </row>
-    <row r="414">
+    <row r="414" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A414" s="3"/>
     </row>
-    <row r="415">
+    <row r="415" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A415" s="3"/>
     </row>
-    <row r="416">
+    <row r="416" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A416" s="3"/>
     </row>
-    <row r="417">
+    <row r="417" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A417" s="3"/>
     </row>
-    <row r="418">
+    <row r="418" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A418" s="3"/>
     </row>
-    <row r="419">
+    <row r="419" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A419" s="3"/>
     </row>
-    <row r="420">
+    <row r="420" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A420" s="3"/>
     </row>
-    <row r="421">
+    <row r="421" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A421" s="3"/>
     </row>
-    <row r="422">
+    <row r="422" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A422" s="3"/>
     </row>
-    <row r="423">
+    <row r="423" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A423" s="3"/>
     </row>
-    <row r="424">
+    <row r="424" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A424" s="3"/>
     </row>
-    <row r="425">
+    <row r="425" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A425" s="3"/>
     </row>
-    <row r="426">
+    <row r="426" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A426" s="3"/>
     </row>
-    <row r="427">
+    <row r="427" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A427" s="3"/>
     </row>
-    <row r="428">
+    <row r="428" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A428" s="3"/>
     </row>
-    <row r="429">
+    <row r="429" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A429" s="3"/>
     </row>
-    <row r="430">
+    <row r="430" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A430" s="3"/>
     </row>
-    <row r="431">
+    <row r="431" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A431" s="3"/>
     </row>
-    <row r="432">
+    <row r="432" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A432" s="3"/>
     </row>
-    <row r="433">
+    <row r="433" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A433" s="3"/>
     </row>
-    <row r="434">
+    <row r="434" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A434" s="3"/>
     </row>
-    <row r="435">
+    <row r="435" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A435" s="3"/>
     </row>
-    <row r="436">
+    <row r="436" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A436" s="3"/>
     </row>
-    <row r="437">
+    <row r="437" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A437" s="3"/>
     </row>
-    <row r="438">
+    <row r="438" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A438" s="3"/>
     </row>
-    <row r="439">
+    <row r="439" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A439" s="3"/>
     </row>
-    <row r="440">
+    <row r="440" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A440" s="3"/>
     </row>
-    <row r="441">
+    <row r="441" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A441" s="3"/>
     </row>
-    <row r="442">
+    <row r="442" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A442" s="3"/>
     </row>
-    <row r="443">
+    <row r="443" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A443" s="3"/>
     </row>
-    <row r="444">
+    <row r="444" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A444" s="3"/>
     </row>
-    <row r="445">
+    <row r="445" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A445" s="3"/>
     </row>
-    <row r="446">
+    <row r="446" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A446" s="3"/>
     </row>
-    <row r="447">
+    <row r="447" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A447" s="3"/>
     </row>
-    <row r="448">
+    <row r="448" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A448" s="3"/>
     </row>
-    <row r="449">
+    <row r="449" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A449" s="3"/>
     </row>
-    <row r="450">
+    <row r="450" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A450" s="3"/>
     </row>
-    <row r="451">
+    <row r="451" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A451" s="3"/>
     </row>
-    <row r="452">
+    <row r="452" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A452" s="3"/>
     </row>
-    <row r="453">
+    <row r="453" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A453" s="3"/>
     </row>
-    <row r="454">
+    <row r="454" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A454" s="3"/>
     </row>
-    <row r="455">
+    <row r="455" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A455" s="3"/>
     </row>
-    <row r="456">
+    <row r="456" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A456" s="3"/>
     </row>
-    <row r="457">
+    <row r="457" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A457" s="3"/>
     </row>
-    <row r="458">
+    <row r="458" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A458" s="3"/>
     </row>
-    <row r="459">
+    <row r="459" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A459" s="3"/>
     </row>
-    <row r="460">
+    <row r="460" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A460" s="3"/>
     </row>
-    <row r="461">
+    <row r="461" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A461" s="3"/>
     </row>
-    <row r="462">
+    <row r="462" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A462" s="3"/>
     </row>
-    <row r="463">
+    <row r="463" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A463" s="3"/>
     </row>
-    <row r="464">
+    <row r="464" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A464" s="3"/>
     </row>
-    <row r="465">
+    <row r="465" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A465" s="3"/>
     </row>
-    <row r="466">
+    <row r="466" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A466" s="3"/>
     </row>
-    <row r="467">
+    <row r="467" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A467" s="3"/>
     </row>
-    <row r="468">
+    <row r="468" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A468" s="3"/>
     </row>
-    <row r="469">
+    <row r="469" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A469" s="3"/>
     </row>
-    <row r="470">
+    <row r="470" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A470" s="3"/>
     </row>
-    <row r="471">
+    <row r="471" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A471" s="3"/>
     </row>
-    <row r="472">
+    <row r="472" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A472" s="3"/>
     </row>
-    <row r="473">
+    <row r="473" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A473" s="3"/>
     </row>
-    <row r="474">
+    <row r="474" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A474" s="3"/>
     </row>
-    <row r="475">
+    <row r="475" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A475" s="3"/>
     </row>
-    <row r="476">
+    <row r="476" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A476" s="3"/>
     </row>
-    <row r="477">
+    <row r="477" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A477" s="3"/>
     </row>
-    <row r="478">
+    <row r="478" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A478" s="3"/>
     </row>
-    <row r="479">
+    <row r="479" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A479" s="3"/>
     </row>
-    <row r="480">
+    <row r="480" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A480" s="3"/>
     </row>
-    <row r="481">
+    <row r="481" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A481" s="3"/>
     </row>
-    <row r="482">
+    <row r="482" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A482" s="3"/>
     </row>
-    <row r="483">
+    <row r="483" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A483" s="3"/>
     </row>
-    <row r="484">
+    <row r="484" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A484" s="3"/>
     </row>
-    <row r="485">
+    <row r="485" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A485" s="3"/>
     </row>
-    <row r="486">
+    <row r="486" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A486" s="3"/>
     </row>
-    <row r="487">
+    <row r="487" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A487" s="3"/>
     </row>
-    <row r="488">
+    <row r="488" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A488" s="3"/>
     </row>
-    <row r="489">
+    <row r="489" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A489" s="3"/>
     </row>
-    <row r="490">
+    <row r="490" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A490" s="3"/>
     </row>
-    <row r="491">
+    <row r="491" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A491" s="3"/>
     </row>
-    <row r="492">
+    <row r="492" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A492" s="3"/>
     </row>
-    <row r="493">
+    <row r="493" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A493" s="3"/>
     </row>
-    <row r="494">
+    <row r="494" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A494" s="3"/>
     </row>
-    <row r="495">
+    <row r="495" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A495" s="3"/>
     </row>
-    <row r="496">
+    <row r="496" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A496" s="3"/>
     </row>
-    <row r="497">
+    <row r="497" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A497" s="3"/>
     </row>
-    <row r="498">
+    <row r="498" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A498" s="3"/>
     </row>
-    <row r="499">
+    <row r="499" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A499" s="3"/>
     </row>
-    <row r="500">
+    <row r="500" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A500" s="3"/>
     </row>
-    <row r="501">
+    <row r="501" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A501" s="3"/>
     </row>
-    <row r="502">
+    <row r="502" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A502" s="3"/>
     </row>
-    <row r="503">
+    <row r="503" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A503" s="3"/>
     </row>
-    <row r="504">
+    <row r="504" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A504" s="3"/>
     </row>
-    <row r="505">
+    <row r="505" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A505" s="3"/>
     </row>
-    <row r="506">
+    <row r="506" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A506" s="3"/>
     </row>
-    <row r="507">
+    <row r="507" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A507" s="3"/>
     </row>
-    <row r="508">
+    <row r="508" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A508" s="3"/>
     </row>
-    <row r="509">
+    <row r="509" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A509" s="3"/>
     </row>
-    <row r="510">
+    <row r="510" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A510" s="3"/>
     </row>
-    <row r="511">
+    <row r="511" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A511" s="3"/>
     </row>
-    <row r="512">
+    <row r="512" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A512" s="3"/>
     </row>
-    <row r="513">
+    <row r="513" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A513" s="3"/>
     </row>
-    <row r="514">
+    <row r="514" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A514" s="3"/>
     </row>
-    <row r="515">
+    <row r="515" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A515" s="3"/>
     </row>
-    <row r="516">
+    <row r="516" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A516" s="3"/>
     </row>
-    <row r="517">
+    <row r="517" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A517" s="3"/>
     </row>
-    <row r="518">
+    <row r="518" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A518" s="3"/>
     </row>
-    <row r="519">
+    <row r="519" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A519" s="3"/>
     </row>
-    <row r="520">
+    <row r="520" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A520" s="3"/>
     </row>
-    <row r="521">
+    <row r="521" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A521" s="3"/>
     </row>
-    <row r="522">
+    <row r="522" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A522" s="3"/>
     </row>
-    <row r="523">
+    <row r="523" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A523" s="3"/>
     </row>
-    <row r="524">
+    <row r="524" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A524" s="3"/>
     </row>
-    <row r="525">
+    <row r="525" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A525" s="3"/>
     </row>
-    <row r="526">
+    <row r="526" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A526" s="3"/>
     </row>
-    <row r="527">
+    <row r="527" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A527" s="3"/>
     </row>
-    <row r="528">
+    <row r="528" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A528" s="3"/>
     </row>
-    <row r="529">
+    <row r="529" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A529" s="3"/>
     </row>
-    <row r="530">
+    <row r="530" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A530" s="3"/>
     </row>
-    <row r="531">
+    <row r="531" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A531" s="3"/>
     </row>
-    <row r="532">
+    <row r="532" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A532" s="3"/>
     </row>
-    <row r="533">
+    <row r="533" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A533" s="3"/>
     </row>
-    <row r="534">
+    <row r="534" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A534" s="3"/>
     </row>
-    <row r="535">
+    <row r="535" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A535" s="3"/>
     </row>
-    <row r="536">
+    <row r="536" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A536" s="3"/>
     </row>
-    <row r="537">
+    <row r="537" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A537" s="3"/>
     </row>
-    <row r="538">
+    <row r="538" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A538" s="3"/>
     </row>
-    <row r="539">
+    <row r="539" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A539" s="3"/>
     </row>
-    <row r="540">
+    <row r="540" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A540" s="3"/>
     </row>
-    <row r="541">
+    <row r="541" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A541" s="3"/>
     </row>
-    <row r="542">
+    <row r="542" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A542" s="3"/>
     </row>
-    <row r="543">
+    <row r="543" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A543" s="3"/>
     </row>
-    <row r="544">
+    <row r="544" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A544" s="3"/>
     </row>
-    <row r="545">
+    <row r="545" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A545" s="3"/>
     </row>
-    <row r="546">
+    <row r="546" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A546" s="3"/>
     </row>
-    <row r="547">
+    <row r="547" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A547" s="3"/>
     </row>
-    <row r="548">
+    <row r="548" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A548" s="3"/>
     </row>
-    <row r="549">
+    <row r="549" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A549" s="3"/>
     </row>
-    <row r="550">
+    <row r="550" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A550" s="3"/>
     </row>
-    <row r="551">
+    <row r="551" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A551" s="3"/>
     </row>
-    <row r="552">
+    <row r="552" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A552" s="3"/>
     </row>
-    <row r="553">
+    <row r="553" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A553" s="3"/>
     </row>
-    <row r="554">
+    <row r="554" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A554" s="3"/>
     </row>
-    <row r="555">
+    <row r="555" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A555" s="3"/>
     </row>
-    <row r="556">
+    <row r="556" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A556" s="3"/>
     </row>
-    <row r="557">
+    <row r="557" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A557" s="3"/>
     </row>
-    <row r="558">
+    <row r="558" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A558" s="3"/>
     </row>
-    <row r="559">
+    <row r="559" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A559" s="3"/>
     </row>
-    <row r="560">
+    <row r="560" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A560" s="3"/>
     </row>
-    <row r="561">
+    <row r="561" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A561" s="3"/>
     </row>
-    <row r="562">
+    <row r="562" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A562" s="3"/>
     </row>
-    <row r="563">
+    <row r="563" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A563" s="3"/>
     </row>
-    <row r="564">
+    <row r="564" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A564" s="3"/>
     </row>
-    <row r="565">
+    <row r="565" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A565" s="3"/>
     </row>
-    <row r="566">
+    <row r="566" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A566" s="3"/>
     </row>
-    <row r="567">
+    <row r="567" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A567" s="3"/>
     </row>
-    <row r="568">
+    <row r="568" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A568" s="3"/>
     </row>
-    <row r="569">
+    <row r="569" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A569" s="3"/>
     </row>
-    <row r="570">
+    <row r="570" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A570" s="3"/>
     </row>
-    <row r="571">
+    <row r="571" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A571" s="3"/>
     </row>
-    <row r="572">
+    <row r="572" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A572" s="3"/>
     </row>
-    <row r="573">
+    <row r="573" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A573" s="3"/>
     </row>
-    <row r="574">
+    <row r="574" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A574" s="3"/>
     </row>
-    <row r="575">
+    <row r="575" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A575" s="3"/>
     </row>
-    <row r="576">
+    <row r="576" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A576" s="3"/>
     </row>
-    <row r="577">
+    <row r="577" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A577" s="3"/>
     </row>
-    <row r="578">
+    <row r="578" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A578" s="3"/>
     </row>
-    <row r="579">
+    <row r="579" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A579" s="3"/>
     </row>
-    <row r="580">
+    <row r="580" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A580" s="3"/>
     </row>
-    <row r="581">
+    <row r="581" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A581" s="3"/>
     </row>
-    <row r="582">
+    <row r="582" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A582" s="3"/>
     </row>
-    <row r="583">
+    <row r="583" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A583" s="3"/>
     </row>
-    <row r="584">
+    <row r="584" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A584" s="3"/>
     </row>
-    <row r="585">
+    <row r="585" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A585" s="3"/>
     </row>
-    <row r="586">
+    <row r="586" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A586" s="3"/>
     </row>
-    <row r="587">
+    <row r="587" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A587" s="3"/>
     </row>
-    <row r="588">
+    <row r="588" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A588" s="3"/>
     </row>
-    <row r="589">
+    <row r="589" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A589" s="3"/>
     </row>
-    <row r="590">
+    <row r="590" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A590" s="3"/>
     </row>
-    <row r="591">
+    <row r="591" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A591" s="3"/>
     </row>
-    <row r="592">
+    <row r="592" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A592" s="3"/>
     </row>
-    <row r="593">
+    <row r="593" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A593" s="3"/>
     </row>
-    <row r="594">
+    <row r="594" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A594" s="3"/>
     </row>
-    <row r="595">
+    <row r="595" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A595" s="3"/>
     </row>
-    <row r="596">
+    <row r="596" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A596" s="3"/>
     </row>
-    <row r="597">
+    <row r="597" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A597" s="3"/>
     </row>
-    <row r="598">
+    <row r="598" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A598" s="3"/>
     </row>
-    <row r="599">
+    <row r="599" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A599" s="3"/>
     </row>
-    <row r="600">
+    <row r="600" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A600" s="3"/>
     </row>
-    <row r="601">
+    <row r="601" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A601" s="3"/>
     </row>
-    <row r="602">
+    <row r="602" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A602" s="3"/>
     </row>
-    <row r="603">
+    <row r="603" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A603" s="3"/>
     </row>
-    <row r="604">
+    <row r="604" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A604" s="3"/>
     </row>
-    <row r="605">
+    <row r="605" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A605" s="3"/>
     </row>
-    <row r="606">
+    <row r="606" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A606" s="3"/>
     </row>
-    <row r="607">
+    <row r="607" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A607" s="3"/>
     </row>
-    <row r="608">
+    <row r="608" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A608" s="3"/>
     </row>
-    <row r="609">
+    <row r="609" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A609" s="3"/>
     </row>
-    <row r="610">
+    <row r="610" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A610" s="3"/>
     </row>
-    <row r="611">
+    <row r="611" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A611" s="3"/>
     </row>
-    <row r="612">
+    <row r="612" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A612" s="3"/>
     </row>
-    <row r="613">
+    <row r="613" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A613" s="3"/>
     </row>
-    <row r="614">
+    <row r="614" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A614" s="3"/>
     </row>
-    <row r="615">
+    <row r="615" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A615" s="3"/>
     </row>
-    <row r="616">
+    <row r="616" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A616" s="3"/>
     </row>
-    <row r="617">
+    <row r="617" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A617" s="3"/>
     </row>
-    <row r="618">
+    <row r="618" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A618" s="3"/>
     </row>
-    <row r="619">
+    <row r="619" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A619" s="3"/>
     </row>
-    <row r="620">
+    <row r="620" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A620" s="3"/>
     </row>
-    <row r="621">
+    <row r="621" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A621" s="3"/>
     </row>
-    <row r="622">
+    <row r="622" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A622" s="3"/>
     </row>
-    <row r="623">
+    <row r="623" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A623" s="3"/>
     </row>
-    <row r="624">
+    <row r="624" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A624" s="3"/>
     </row>
-    <row r="625">
+    <row r="625" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A625" s="3"/>
     </row>
-    <row r="626">
+    <row r="626" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A626" s="3"/>
     </row>
-    <row r="627">
+    <row r="627" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A627" s="3"/>
     </row>
-    <row r="628">
+    <row r="628" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A628" s="3"/>
     </row>
-    <row r="629">
+    <row r="629" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A629" s="3"/>
     </row>
-    <row r="630">
+    <row r="630" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A630" s="3"/>
     </row>
-    <row r="631">
+    <row r="631" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A631" s="3"/>
     </row>
-    <row r="632">
+    <row r="632" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A632" s="3"/>
     </row>
-    <row r="633">
+    <row r="633" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A633" s="3"/>
     </row>
-    <row r="634">
+    <row r="634" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A634" s="3"/>
     </row>
-    <row r="635">
+    <row r="635" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A635" s="3"/>
     </row>
-    <row r="636">
+    <row r="636" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A636" s="3"/>
     </row>
-    <row r="637">
+    <row r="637" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A637" s="3"/>
     </row>
-    <row r="638">
+    <row r="638" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A638" s="3"/>
     </row>
-    <row r="639">
+    <row r="639" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A639" s="3"/>
     </row>
-    <row r="640">
+    <row r="640" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A640" s="3"/>
     </row>
-    <row r="641">
+    <row r="641" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A641" s="3"/>
     </row>
-    <row r="642">
+    <row r="642" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A642" s="3"/>
     </row>
-    <row r="643">
+    <row r="643" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A643" s="3"/>
     </row>
-    <row r="644">
+    <row r="644" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A644" s="3"/>
     </row>
-    <row r="645">
+    <row r="645" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A645" s="3"/>
     </row>
-    <row r="646">
+    <row r="646" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A646" s="3"/>
     </row>
-    <row r="647">
+    <row r="647" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A647" s="3"/>
     </row>
-    <row r="648">
+    <row r="648" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A648" s="3"/>
     </row>
-    <row r="649">
+    <row r="649" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A649" s="3"/>
     </row>
-    <row r="650">
+    <row r="650" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A650" s="3"/>
     </row>
-    <row r="651">
+    <row r="651" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A651" s="3"/>
     </row>
-    <row r="652">
+    <row r="652" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A652" s="3"/>
     </row>
-    <row r="653">
+    <row r="653" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A653" s="3"/>
     </row>
-    <row r="654">
+    <row r="654" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A654" s="3"/>
     </row>
-    <row r="655">
+    <row r="655" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A655" s="3"/>
     </row>
-    <row r="656">
+    <row r="656" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A656" s="3"/>
     </row>
-    <row r="657">
+    <row r="657" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A657" s="3"/>
     </row>
-    <row r="658">
+    <row r="658" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A658" s="3"/>
     </row>
-    <row r="659">
+    <row r="659" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A659" s="3"/>
     </row>
-    <row r="660">
+    <row r="660" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A660" s="3"/>
     </row>
-    <row r="661">
+    <row r="661" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A661" s="3"/>
     </row>
-    <row r="662">
+    <row r="662" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A662" s="3"/>
     </row>
-    <row r="663">
+    <row r="663" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A663" s="3"/>
     </row>
-    <row r="664">
+    <row r="664" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A664" s="3"/>
     </row>
-    <row r="665">
+    <row r="665" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A665" s="3"/>
     </row>
-    <row r="666">
+    <row r="666" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A666" s="3"/>
     </row>
-    <row r="667">
+    <row r="667" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A667" s="3"/>
     </row>
-    <row r="668">
+    <row r="668" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A668" s="3"/>
     </row>
-    <row r="669">
+    <row r="669" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A669" s="3"/>
     </row>
-    <row r="670">
+    <row r="670" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A670" s="3"/>
     </row>
-    <row r="671">
+    <row r="671" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A671" s="3"/>
     </row>
-    <row r="672">
+    <row r="672" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A672" s="3"/>
     </row>
-    <row r="673">
+    <row r="673" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A673" s="3"/>
     </row>
-    <row r="674">
+    <row r="674" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A674" s="3"/>
     </row>
-    <row r="675">
+    <row r="675" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A675" s="3"/>
     </row>
-    <row r="676">
+    <row r="676" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A676" s="3"/>
     </row>
-    <row r="677">
+    <row r="677" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A677" s="3"/>
     </row>
-    <row r="678">
+    <row r="678" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A678" s="3"/>
     </row>
-    <row r="679">
+    <row r="679" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A679" s="3"/>
     </row>
-    <row r="680">
+    <row r="680" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A680" s="3"/>
     </row>
-    <row r="681">
+    <row r="681" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A681" s="3"/>
     </row>
-    <row r="682">
+    <row r="682" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A682" s="3"/>
     </row>
-    <row r="683">
+    <row r="683" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A683" s="3"/>
     </row>
-    <row r="684">
+    <row r="684" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A684" s="3"/>
     </row>
-    <row r="685">
+    <row r="685" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A685" s="3"/>
     </row>
-    <row r="686">
+    <row r="686" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A686" s="3"/>
     </row>
-    <row r="687">
+    <row r="687" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A687" s="3"/>
     </row>
-    <row r="688">
+    <row r="688" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A688" s="3"/>
     </row>
-    <row r="689">
+    <row r="689" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A689" s="3"/>
     </row>
-    <row r="690">
+    <row r="690" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A690" s="3"/>
     </row>
-    <row r="691">
+    <row r="691" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A691" s="3"/>
     </row>
-    <row r="692">
+    <row r="692" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A692" s="3"/>
     </row>
-    <row r="693">
+    <row r="693" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A693" s="3"/>
     </row>
-    <row r="694">
+    <row r="694" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A694" s="3"/>
     </row>
-    <row r="695">
+    <row r="695" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A695" s="3"/>
     </row>
-    <row r="696">
+    <row r="696" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A696" s="3"/>
     </row>
-    <row r="697">
+    <row r="697" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A697" s="3"/>
     </row>
-    <row r="698">
+    <row r="698" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A698" s="3"/>
     </row>
-    <row r="699">
+    <row r="699" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A699" s="3"/>
     </row>
-    <row r="700">
+    <row r="700" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A700" s="3"/>
     </row>
-    <row r="701">
+    <row r="701" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A701" s="3"/>
     </row>
-    <row r="702">
+    <row r="702" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A702" s="3"/>
     </row>
-    <row r="703">
+    <row r="703" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A703" s="3"/>
     </row>
-    <row r="704">
+    <row r="704" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A704" s="3"/>
     </row>
-    <row r="705">
+    <row r="705" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A705" s="3"/>
     </row>
-    <row r="706">
+    <row r="706" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A706" s="3"/>
     </row>
-    <row r="707">
+    <row r="707" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A707" s="3"/>
     </row>
-    <row r="708">
+    <row r="708" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A708" s="3"/>
     </row>
-    <row r="709">
+    <row r="709" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A709" s="3"/>
     </row>
-    <row r="710">
+    <row r="710" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A710" s="3"/>
     </row>
-    <row r="711">
+    <row r="711" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A711" s="3"/>
     </row>
-    <row r="712">
+    <row r="712" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A712" s="3"/>
     </row>
-    <row r="713">
+    <row r="713" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A713" s="3"/>
     </row>
-    <row r="714">
+    <row r="714" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A714" s="3"/>
     </row>
-    <row r="715">
+    <row r="715" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A715" s="3"/>
     </row>
-    <row r="716">
+    <row r="716" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A716" s="3"/>
     </row>
-    <row r="717">
+    <row r="717" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A717" s="3"/>
     </row>
-    <row r="718">
+    <row r="718" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A718" s="3"/>
     </row>
-    <row r="719">
+    <row r="719" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A719" s="3"/>
     </row>
-    <row r="720">
+    <row r="720" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A720" s="3"/>
     </row>
-    <row r="721">
+    <row r="721" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A721" s="3"/>
     </row>
-    <row r="722">
+    <row r="722" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A722" s="3"/>
     </row>
-    <row r="723">
+    <row r="723" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A723" s="3"/>
     </row>
-    <row r="724">
+    <row r="724" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A724" s="3"/>
     </row>
-    <row r="725">
+    <row r="725" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A725" s="3"/>
     </row>
-    <row r="726">
+    <row r="726" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A726" s="3"/>
     </row>
-    <row r="727">
+    <row r="727" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A727" s="3"/>
     </row>
-    <row r="728">
+    <row r="728" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A728" s="3"/>
     </row>
-    <row r="729">
+    <row r="729" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A729" s="3"/>
     </row>
-    <row r="730">
+    <row r="730" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A730" s="3"/>
     </row>
-    <row r="731">
+    <row r="731" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A731" s="3"/>
     </row>
-    <row r="732">
+    <row r="732" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A732" s="3"/>
     </row>
-    <row r="733">
+    <row r="733" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A733" s="3"/>
     </row>
-    <row r="734">
+    <row r="734" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A734" s="3"/>
     </row>
-    <row r="735">
+    <row r="735" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A735" s="3"/>
     </row>
-    <row r="736">
+    <row r="736" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A736" s="3"/>
     </row>
-    <row r="737">
+    <row r="737" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A737" s="3"/>
     </row>
-    <row r="738">
+    <row r="738" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A738" s="3"/>
     </row>
-    <row r="739">
+    <row r="739" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A739" s="3"/>
     </row>
-    <row r="740">
+    <row r="740" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A740" s="3"/>
     </row>
-    <row r="741">
+    <row r="741" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A741" s="3"/>
     </row>
-    <row r="742">
+    <row r="742" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A742" s="3"/>
     </row>
-    <row r="743">
+    <row r="743" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A743" s="3"/>
     </row>
-    <row r="744">
+    <row r="744" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A744" s="3"/>
     </row>
-    <row r="745">
+    <row r="745" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A745" s="3"/>
     </row>
-    <row r="746">
+    <row r="746" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A746" s="3"/>
     </row>
-    <row r="747">
+    <row r="747" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A747" s="3"/>
     </row>
-    <row r="748">
+    <row r="748" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A748" s="3"/>
     </row>
-    <row r="749">
+    <row r="749" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A749" s="3"/>
     </row>
-    <row r="750">
+    <row r="750" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A750" s="3"/>
     </row>
-    <row r="751">
+    <row r="751" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A751" s="3"/>
     </row>
-    <row r="752">
+    <row r="752" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A752" s="3"/>
     </row>
-    <row r="753">
+    <row r="753" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A753" s="3"/>
     </row>
-    <row r="754">
+    <row r="754" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A754" s="3"/>
     </row>
-    <row r="755">
+    <row r="755" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A755" s="3"/>
     </row>
-    <row r="756">
+    <row r="756" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A756" s="3"/>
     </row>
-    <row r="757">
+    <row r="757" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A757" s="3"/>
     </row>
-    <row r="758">
+    <row r="758" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A758" s="3"/>
     </row>
-    <row r="759">
+    <row r="759" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A759" s="3"/>
     </row>
-    <row r="760">
+    <row r="760" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A760" s="3"/>
     </row>
-    <row r="761">
+    <row r="761" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A761" s="3"/>
     </row>
-    <row r="762">
+    <row r="762" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A762" s="3"/>
     </row>
-    <row r="763">
+    <row r="763" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A763" s="3"/>
     </row>
-    <row r="764">
+    <row r="764" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A764" s="3"/>
     </row>
-    <row r="765">
+    <row r="765" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A765" s="3"/>
     </row>
-    <row r="766">
+    <row r="766" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A766" s="3"/>
     </row>
-    <row r="767">
+    <row r="767" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A767" s="3"/>
     </row>
-    <row r="768">
+    <row r="768" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A768" s="3"/>
     </row>
-    <row r="769">
+    <row r="769" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A769" s="3"/>
     </row>
-    <row r="770">
+    <row r="770" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A770" s="3"/>
     </row>
-    <row r="771">
+    <row r="771" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A771" s="3"/>
     </row>
-    <row r="772">
+    <row r="772" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A772" s="3"/>
     </row>
-    <row r="773">
+    <row r="773" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A773" s="3"/>
     </row>
-    <row r="774">
+    <row r="774" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A774" s="3"/>
     </row>
-    <row r="775">
+    <row r="775" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A775" s="3"/>
     </row>
-    <row r="776">
+    <row r="776" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A776" s="3"/>
     </row>
-    <row r="777">
+    <row r="777" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A777" s="3"/>
     </row>
-    <row r="778">
+    <row r="778" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A778" s="3"/>
     </row>
-    <row r="779">
+    <row r="779" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A779" s="3"/>
     </row>
-    <row r="780">
+    <row r="780" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A780" s="3"/>
     </row>
-    <row r="781">
+    <row r="781" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A781" s="3"/>
     </row>
-    <row r="782">
+    <row r="782" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A782" s="3"/>
     </row>
-    <row r="783">
+    <row r="783" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A783" s="3"/>
     </row>
-    <row r="784">
+    <row r="784" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A784" s="3"/>
     </row>
-    <row r="785">
+    <row r="785" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A785" s="3"/>
     </row>
-    <row r="786">
+    <row r="786" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A786" s="3"/>
     </row>
-    <row r="787">
+    <row r="787" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A787" s="3"/>
     </row>
-    <row r="788">
+    <row r="788" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A788" s="3"/>
     </row>
-    <row r="789">
+    <row r="789" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A789" s="3"/>
     </row>
-    <row r="790">
+    <row r="790" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A790" s="3"/>
     </row>
-    <row r="791">
+    <row r="791" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A791" s="3"/>
     </row>
-    <row r="792">
+    <row r="792" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A792" s="3"/>
     </row>
-    <row r="793">
+    <row r="793" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A793" s="3"/>
     </row>
-    <row r="794">
+    <row r="794" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A794" s="3"/>
     </row>
-    <row r="795">
+    <row r="795" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A795" s="3"/>
     </row>
-    <row r="796">
+    <row r="796" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A796" s="3"/>
     </row>
-    <row r="797">
+    <row r="797" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A797" s="3"/>
     </row>
-    <row r="798">
+    <row r="798" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A798" s="3"/>
     </row>
-    <row r="799">
+    <row r="799" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A799" s="3"/>
     </row>
-    <row r="800">
+    <row r="800" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A800" s="3"/>
     </row>
-    <row r="801">
+    <row r="801" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A801" s="3"/>
     </row>
-    <row r="802">
+    <row r="802" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A802" s="3"/>
     </row>
-    <row r="803">
+    <row r="803" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A803" s="3"/>
     </row>
-    <row r="804">
+    <row r="804" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A804" s="3"/>
     </row>
-    <row r="805">
+    <row r="805" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A805" s="3"/>
     </row>
-    <row r="806">
+    <row r="806" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A806" s="3"/>
     </row>
-    <row r="807">
+    <row r="807" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A807" s="3"/>
     </row>
-    <row r="808">
+    <row r="808" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A808" s="3"/>
     </row>
-    <row r="809">
+    <row r="809" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A809" s="3"/>
     </row>
-    <row r="810">
+    <row r="810" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A810" s="3"/>
     </row>
-    <row r="811">
+    <row r="811" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A811" s="3"/>
     </row>
-    <row r="812">
+    <row r="812" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A812" s="3"/>
     </row>
-    <row r="813">
+    <row r="813" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A813" s="3"/>
     </row>
-    <row r="814">
+    <row r="814" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A814" s="3"/>
     </row>
-    <row r="815">
+    <row r="815" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A815" s="3"/>
     </row>
-    <row r="816">
+    <row r="816" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A816" s="3"/>
     </row>
-    <row r="817">
+    <row r="817" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A817" s="3"/>
     </row>
-    <row r="818">
+    <row r="818" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A818" s="3"/>
     </row>
-    <row r="819">
+    <row r="819" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A819" s="3"/>
     </row>
-    <row r="820">
+    <row r="820" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A820" s="3"/>
     </row>
-    <row r="821">
+    <row r="821" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A821" s="3"/>
     </row>
-    <row r="822">
+    <row r="822" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A822" s="3"/>
     </row>
-    <row r="823">
+    <row r="823" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A823" s="3"/>
     </row>
-    <row r="824">
+    <row r="824" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A824" s="3"/>
     </row>
-    <row r="825">
+    <row r="825" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A825" s="3"/>
     </row>
-    <row r="826">
+    <row r="826" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A826" s="3"/>
     </row>
-    <row r="827">
+    <row r="827" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A827" s="3"/>
     </row>
-    <row r="828">
+    <row r="828" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A828" s="3"/>
     </row>
-    <row r="829">
+    <row r="829" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A829" s="3"/>
     </row>
-    <row r="830">
+    <row r="830" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A830" s="3"/>
     </row>
-    <row r="831">
+    <row r="831" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A831" s="3"/>
     </row>
-    <row r="832">
+    <row r="832" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A832" s="3"/>
     </row>
-    <row r="833">
+    <row r="833" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A833" s="3"/>
     </row>
-    <row r="834">
+    <row r="834" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A834" s="3"/>
     </row>
-    <row r="835">
+    <row r="835" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A835" s="3"/>
     </row>
-    <row r="836">
+    <row r="836" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A836" s="3"/>
     </row>
-    <row r="837">
+    <row r="837" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A837" s="3"/>
     </row>
-    <row r="838">
+    <row r="838" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A838" s="3"/>
     </row>
-    <row r="839">
+    <row r="839" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A839" s="3"/>
     </row>
-    <row r="840">
+    <row r="840" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A840" s="3"/>
     </row>
-    <row r="841">
+    <row r="841" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A841" s="3"/>
     </row>
-    <row r="842">
+    <row r="842" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A842" s="3"/>
     </row>
-    <row r="843">
+    <row r="843" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A843" s="3"/>
     </row>
-    <row r="844">
+    <row r="844" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A844" s="3"/>
     </row>
-    <row r="845">
+    <row r="845" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A845" s="3"/>
     </row>
-    <row r="846">
+    <row r="846" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A846" s="3"/>
     </row>
-    <row r="847">
+    <row r="847" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A847" s="3"/>
     </row>
-    <row r="848">
+    <row r="848" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A848" s="3"/>
     </row>
-    <row r="849">
+    <row r="849" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A849" s="3"/>
     </row>
-    <row r="850">
+    <row r="850" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A850" s="3"/>
     </row>
-    <row r="851">
+    <row r="851" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A851" s="3"/>
     </row>
-    <row r="852">
+    <row r="852" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A852" s="3"/>
     </row>
-    <row r="853">
+    <row r="853" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A853" s="3"/>
     </row>
-    <row r="854">
+    <row r="854" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A854" s="3"/>
     </row>
-    <row r="855">
+    <row r="855" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A855" s="3"/>
     </row>
-    <row r="856">
+    <row r="856" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A856" s="3"/>
     </row>
-    <row r="857">
+    <row r="857" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A857" s="3"/>
     </row>
-    <row r="858">
+    <row r="858" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A858" s="3"/>
     </row>
-    <row r="859">
+    <row r="859" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A859" s="3"/>
     </row>
-    <row r="860">
+    <row r="860" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A860" s="3"/>
     </row>
-    <row r="861">
+    <row r="861" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A861" s="3"/>
     </row>
-    <row r="862">
+    <row r="862" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A862" s="3"/>
     </row>
-    <row r="863">
+    <row r="863" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A863" s="3"/>
     </row>
-    <row r="864">
+    <row r="864" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A864" s="3"/>
     </row>
-    <row r="865">
+    <row r="865" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A865" s="3"/>
     </row>
-    <row r="866">
+    <row r="866" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A866" s="3"/>
     </row>
-    <row r="867">
+    <row r="867" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A867" s="3"/>
     </row>
-    <row r="868">
+    <row r="868" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A868" s="3"/>
     </row>
-    <row r="869">
+    <row r="869" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A869" s="3"/>
     </row>
-    <row r="870">
+    <row r="870" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A870" s="3"/>
     </row>
-    <row r="871">
+    <row r="871" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A871" s="3"/>
     </row>
-    <row r="872">
+    <row r="872" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A872" s="3"/>
     </row>
-    <row r="873">
+    <row r="873" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A873" s="3"/>
     </row>
-    <row r="874">
+    <row r="874" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A874" s="3"/>
     </row>
-    <row r="875">
+    <row r="875" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A875" s="3"/>
     </row>
-    <row r="876">
+    <row r="876" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A876" s="3"/>
     </row>
-    <row r="877">
+    <row r="877" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A877" s="3"/>
     </row>
-    <row r="878">
+    <row r="878" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A878" s="3"/>
     </row>
-    <row r="879">
+    <row r="879" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A879" s="3"/>
     </row>
-    <row r="880">
+    <row r="880" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A880" s="3"/>
     </row>
-    <row r="881">
+    <row r="881" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A881" s="3"/>
     </row>
-    <row r="882">
+    <row r="882" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A882" s="3"/>
     </row>
-    <row r="883">
+    <row r="883" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A883" s="3"/>
     </row>
-    <row r="884">
+    <row r="884" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A884" s="3"/>
     </row>
-    <row r="885">
+    <row r="885" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A885" s="3"/>
     </row>
-    <row r="886">
+    <row r="886" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A886" s="3"/>
     </row>
-    <row r="887">
+    <row r="887" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A887" s="3"/>
     </row>
-    <row r="888">
+    <row r="888" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A888" s="3"/>
     </row>
-    <row r="889">
+    <row r="889" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A889" s="3"/>
     </row>
-    <row r="890">
+    <row r="890" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A890" s="3"/>
     </row>
-    <row r="891">
+    <row r="891" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A891" s="3"/>
     </row>
-    <row r="892">
+    <row r="892" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A892" s="3"/>
     </row>
-    <row r="893">
+    <row r="893" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A893" s="3"/>
     </row>
-    <row r="894">
+    <row r="894" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A894" s="3"/>
     </row>
-    <row r="895">
+    <row r="895" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A895" s="3"/>
     </row>
-    <row r="896">
+    <row r="896" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A896" s="3"/>
     </row>
-    <row r="897">
+    <row r="897" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A897" s="3"/>
     </row>
-    <row r="898">
+    <row r="898" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A898" s="3"/>
     </row>
-    <row r="899">
+    <row r="899" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A899" s="3"/>
     </row>
-    <row r="900">
+    <row r="900" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A900" s="3"/>
     </row>
-    <row r="901">
+    <row r="901" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A901" s="3"/>
     </row>
-    <row r="902">
+    <row r="902" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A902" s="3"/>
     </row>
-    <row r="903">
+    <row r="903" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A903" s="3"/>
     </row>
-    <row r="904">
+    <row r="904" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A904" s="3"/>
     </row>
-    <row r="905">
+    <row r="905" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A905" s="3"/>
     </row>
-    <row r="906">
+    <row r="906" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A906" s="3"/>
     </row>
-    <row r="907">
+    <row r="907" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A907" s="3"/>
     </row>
-    <row r="908">
+    <row r="908" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A908" s="3"/>
     </row>
-    <row r="909">
+    <row r="909" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A909" s="3"/>
     </row>
-    <row r="910">
+    <row r="910" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A910" s="3"/>
     </row>
-    <row r="911">
+    <row r="911" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A911" s="3"/>
     </row>
-    <row r="912">
+    <row r="912" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A912" s="3"/>
     </row>
-    <row r="913">
+    <row r="913" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A913" s="3"/>
     </row>
-    <row r="914">
+    <row r="914" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A914" s="3"/>
     </row>
-    <row r="915">
+    <row r="915" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A915" s="3"/>
     </row>
-    <row r="916">
+    <row r="916" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A916" s="3"/>
     </row>
-    <row r="917">
+    <row r="917" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A917" s="3"/>
     </row>
-    <row r="918">
+    <row r="918" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A918" s="3"/>
     </row>
-    <row r="919">
+    <row r="919" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A919" s="3"/>
     </row>
-    <row r="920">
+    <row r="920" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A920" s="3"/>
     </row>
-    <row r="921">
+    <row r="921" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A921" s="3"/>
     </row>
-    <row r="922">
+    <row r="922" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A922" s="3"/>
     </row>
-    <row r="923">
+    <row r="923" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A923" s="3"/>
     </row>
-    <row r="924">
+    <row r="924" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A924" s="3"/>
     </row>
-    <row r="925">
+    <row r="925" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A925" s="3"/>
     </row>
-    <row r="926">
+    <row r="926" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A926" s="3"/>
     </row>
-    <row r="927">
+    <row r="927" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A927" s="3"/>
     </row>
-    <row r="928">
+    <row r="928" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A928" s="3"/>
     </row>
-    <row r="929">
+    <row r="929" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A929" s="3"/>
     </row>
-    <row r="930">
+    <row r="930" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A930" s="3"/>
     </row>
-    <row r="931">
+    <row r="931" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A931" s="3"/>
     </row>
-    <row r="932">
+    <row r="932" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A932" s="3"/>
     </row>
-    <row r="933">
+    <row r="933" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A933" s="3"/>
     </row>
-    <row r="934">
+    <row r="934" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A934" s="3"/>
     </row>
-    <row r="935">
+    <row r="935" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A935" s="3"/>
     </row>
-    <row r="936">
+    <row r="936" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A936" s="3"/>
     </row>
-    <row r="937">
+    <row r="937" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A937" s="3"/>
     </row>
-    <row r="938">
+    <row r="938" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A938" s="3"/>
     </row>
-    <row r="939">
+    <row r="939" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A939" s="3"/>
     </row>
-    <row r="940">
+    <row r="940" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A940" s="3"/>
     </row>
-    <row r="941">
+    <row r="941" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A941" s="3"/>
     </row>
-    <row r="942">
+    <row r="942" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A942" s="3"/>
     </row>
-    <row r="943">
+    <row r="943" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A943" s="3"/>
     </row>
-    <row r="944">
+    <row r="944" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A944" s="3"/>
     </row>
-    <row r="945">
+    <row r="945" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A945" s="3"/>
     </row>
-    <row r="946">
+    <row r="946" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A946" s="3"/>
     </row>
-    <row r="947">
+    <row r="947" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A947" s="3"/>
     </row>
-    <row r="948">
+    <row r="948" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A948" s="3"/>
     </row>
-    <row r="949">
+    <row r="949" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A949" s="3"/>
     </row>
-    <row r="950">
+    <row r="950" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A950" s="3"/>
     </row>
-    <row r="951">
+    <row r="951" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A951" s="3"/>
     </row>
-    <row r="952">
+    <row r="952" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A952" s="3"/>
     </row>
-    <row r="953">
+    <row r="953" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A953" s="3"/>
     </row>
-    <row r="954">
+    <row r="954" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A954" s="3"/>
     </row>
-    <row r="955">
+    <row r="955" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A955" s="3"/>
     </row>
-    <row r="956">
+    <row r="956" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A956" s="3"/>
     </row>
-    <row r="957">
+    <row r="957" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A957" s="3"/>
     </row>
-    <row r="958">
+    <row r="958" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A958" s="3"/>
     </row>
-    <row r="959">
+    <row r="959" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A959" s="3"/>
     </row>
-    <row r="960">
+    <row r="960" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A960" s="3"/>
     </row>
-    <row r="961">
+    <row r="961" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A961" s="3"/>
     </row>
-    <row r="962">
+    <row r="962" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A962" s="3"/>
     </row>
-    <row r="963">
+    <row r="963" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A963" s="3"/>
     </row>
-    <row r="964">
+    <row r="964" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A964" s="3"/>
     </row>
-    <row r="965">
+    <row r="965" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A965" s="3"/>
     </row>
-    <row r="966">
+    <row r="966" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A966" s="3"/>
     </row>
-    <row r="967">
+    <row r="967" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A967" s="3"/>
     </row>
-    <row r="968">
+    <row r="968" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A968" s="3"/>
     </row>
-    <row r="969">
+    <row r="969" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A969" s="3"/>
     </row>
-    <row r="970">
+    <row r="970" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A970" s="3"/>
     </row>
-    <row r="971">
+    <row r="971" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A971" s="3"/>
     </row>
-    <row r="972">
+    <row r="972" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A972" s="3"/>
     </row>
-    <row r="973">
+    <row r="973" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A973" s="3"/>
     </row>
-    <row r="974">
+    <row r="974" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A974" s="3"/>
     </row>
-    <row r="975">
+    <row r="975" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A975" s="3"/>
     </row>
-    <row r="976">
+    <row r="976" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A976" s="3"/>
     </row>
-    <row r="977">
+    <row r="977" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A977" s="3"/>
     </row>
-    <row r="978">
+    <row r="978" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A978" s="3"/>
     </row>
-    <row r="979">
+    <row r="979" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A979" s="3"/>
     </row>
-    <row r="980">
+    <row r="980" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A980" s="3"/>
     </row>
-    <row r="981">
+    <row r="981" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A981" s="3"/>
     </row>
-    <row r="982">
+    <row r="982" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A982" s="3"/>
     </row>
-    <row r="983">
+    <row r="983" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A983" s="3"/>
     </row>
-    <row r="984">
+    <row r="984" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A984" s="3"/>
     </row>
-    <row r="985">
+    <row r="985" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A985" s="3"/>
     </row>
-    <row r="986">
+    <row r="986" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A986" s="3"/>
     </row>
-    <row r="987">
+    <row r="987" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A987" s="3"/>
     </row>
-    <row r="988">
+    <row r="988" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A988" s="3"/>
     </row>
-    <row r="989">
+    <row r="989" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A989" s="3"/>
     </row>
-    <row r="990">
+    <row r="990" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A990" s="3"/>
     </row>
-    <row r="991">
+    <row r="991" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A991" s="3"/>
     </row>
-    <row r="992">
+    <row r="992" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A992" s="3"/>
     </row>
-    <row r="993">
+    <row r="993" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A993" s="3"/>
     </row>
-    <row r="994">
+    <row r="994" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A994" s="3"/>
     </row>
-    <row r="995">
+    <row r="995" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A995" s="3"/>
     </row>
-    <row r="996">
+    <row r="996" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A996" s="3"/>
     </row>
-    <row r="997">
+    <row r="997" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A997" s="3"/>
     </row>
-    <row r="998">
+    <row r="998" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A998" s="3"/>
     </row>
-    <row r="999">
+    <row r="999" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A999" s="3"/>
     </row>
-    <row r="1000">
+    <row r="1000" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1000" s="3"/>
     </row>
   </sheetData>
-  <dataValidations>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="A1:A1000">
+  <dataValidations count="1">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="A1:A1000" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>OR(NOT(ISERROR(DATEVALUE(A1))), AND(ISNUMBER(A1), LEFT(CELL("format", A1))="D"))</formula1>
     </dataValidation>
   </dataValidations>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>